--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -7,14 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="大华_Silvassa_PL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="大华_Silvassa_CI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="麦格米特_Silvassa_PL" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="麦格米特_Silvassa_CI" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="工厂_Silvassa_PL" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="工厂_Silvassa_CI" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="工厂_Daman_PL" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="工厂_Daman_CI" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="麦格米特_Silvassa_CI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="工厂_Silvassa_CI" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="工厂_Daman_CI" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56,7 +53,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -70,11 +67,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -83,6 +101,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -448,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -523,19 +550,136 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>C100.030911007</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Connector-XH2,54</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>XH2,54 端子，1包50个</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>F01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>C100.030911008</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Connector-VH3.96</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>VH3.96 端子，1包50个</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>C100.C05-032-04-00</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Milling cutter</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Material: Tungsten Carbide Steel
+Mill Type: Standard Up Draft Type
+Tip Type: Standard Fish Tail Type
+Total Length: 38.1mm
+Knife Length: 12.5mm
+Handle Length: 25.6mm
+Shank Diameter: 3.175mm
+Kinfe Diameter: 1.6mm</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>450</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -543,281 +687,159 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>10.24</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="J6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.08</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H7" s="3" t="n">
         <v>6.92</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I7" s="3" t="n">
         <v>5.82</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>F05</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>C100.010523004</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-400M/roll</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>J100.J01-002-05-00</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Stencil-DH 21_1341 B/T</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>DH 21_1341 B/T</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>J100.J01-002-05-00</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Stencil-DH 21_1340 B/T</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>DH 21_1340 B/T</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>2</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>7.54</v>
+        <v>9.4</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>F24</t>
+          <t>F05</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
+          <t>C100.010523004</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>D-panel Fixture-DH 21_1341 D/P</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>DH 21_1341 D/P</t>
+          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
@@ -827,53 +849,1221 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>11.08</v>
+        <v>5.84</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>5</v>
+        <v>5.69</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>F25</t>
+          <t>F06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-05-01</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Solder tip-900M-T-K-5mm</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-K
+3.刀口宽度：5mm</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>465</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-04-01</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Point Bit-900M-T-B-1.2mm</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>1.符合白光牌烙铁手柄使用；
+2. 900M-T-B
+3.圆头，宽度1.2mm</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-06-01</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Solder tip-900M-T-4C</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>900M-T-4C</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>546</v>
+      </c>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Solder tip-900M-T-2C</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>900M-T-2C</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Solder tip-900-T-1.2D</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>900-T-1.2D</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Soldering sponge-size:60mm X 55mm</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>size:60mm X 55mm</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>C100.C06-019-05-00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>L*W 4*4CM 400pcs/bog</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>F08-F11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30x75x4.0x1</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>6.30x75x4.0x1</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X75X3.0</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75X3.0</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>395</v>
+      </c>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="3" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X75X3.5</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75X3.5</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="n"/>
+      <c r="I19" s="3" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X75X2.5X1</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75X2.5X1</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X75XT6</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75XT6</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X75XT7</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75XT7</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="n"/>
+      <c r="I22" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X75XT8</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>6.30X75XT8</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>6.30X100X3.8XT9</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Screw bit-6.30X100X3.8XT10</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>6.30X100X3.8XT10</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="5" t="n"/>
+      <c r="I25" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>E100.019100006</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>50.60 mtrX300 mm</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>F13-F15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>E100.019100007</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>50.20mtrx400 mm</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>E100.019100008</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>40.5mtrX300 mm</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>F17</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>E100.020308001</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>长510MM 宽223MM  高11MM</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>F18-F20</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>E100.020308001</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>长510MM 宽223MM  高11MM</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>F21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203133015</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Positioning pin-FW07014AA</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>FW07014AA</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>F22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203104009</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Fuse holder-plastic</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>排料机保险丝座</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
+      <c r="I32" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J32" s="6" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203104007</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Metal cutters for feeder-triangle</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>排料机三角刀</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="6" t="n"/>
+      <c r="I33" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J33" s="6" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203104017</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Metal cutters for feeder</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>排料机送料器切刀</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="6" t="n"/>
+      <c r="I34" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203162160</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Threaded rod-WS1D-08004</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>WS1D-08004</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="6" t="n"/>
+      <c r="I35" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203162100</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Screw-M5x12 WJ-10509</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: WJ-10509</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="H36" s="6" t="n"/>
+      <c r="I36" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203162049</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Screw-M3X12 WJ-10301</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: WJ-10301</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="6" t="n"/>
+      <c r="I37" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="6" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203162047</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Screw-LS1D-04026</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: LS1D-04026</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="6" t="n"/>
+      <c r="I38" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="6" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>E100.0203162043</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Metal block-LS1D-04021</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Part No.: LS1D-04021</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="6" t="n"/>
+      <c r="I39" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J39" s="6" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>E100.020344000</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Screw -LS1D-07037</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>LS1D-07037</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5" t="n"/>
+      <c r="G40" s="5" t="n"/>
+      <c r="H40" s="5" t="n"/>
+      <c r="I40" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J40" s="5" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>J100.J01-002-05-00</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Stencil-DH 21_1341 B/T</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1341 B/T</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>F23</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>J100.J01-002-05-00</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Stencil-DH 21_1340 B/T</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1340 B/T</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>F24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>J100.J03-002-01-00</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>DH 21_1341 D/P</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>F25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="n">
+      <c r="F44" s="5" t="n"/>
+      <c r="G44" s="5" t="n"/>
+      <c r="H44" s="5" t="n"/>
+      <c r="I44" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J44" s="5" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="J17:J25"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J31:J40"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1270,490 +2460,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Sr No.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>P/N.</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Model NO.</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>QUANTITY</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>CTNS</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Carton MEASUREMENT</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>G.W (KG)</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>N.W(KG)</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Carton NO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>C100.030911007</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Connector-XH2,54</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>XH2,54 端子，1包50个</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>7000</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>F01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>C100.030911008</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Connector-VH3.96</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>VH3.96 端子，1包50个</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203133015</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Positioning pin-FW07014AA</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>FW07014AA</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203104009</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Fuse holder-plastic</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>排料机保险丝座</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203104007</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Metal cutters for feeder-triangle</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>排料机三角刀</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203104017</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Metal cutters for feeder</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>排料机送料器切刀</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203162160</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Threaded rod-WS1D-08004</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>WS1D-08004</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203162100</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Screw-M5x12 WJ-10509</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Part No.: WJ-10509</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203162049</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Screw-M3X12 WJ-10301</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Part No.: WJ-10301</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203162047</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Screw-LS1D-04026</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Part No.: LS1D-04026</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>E100.0203162043</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Metal block-LS1D-04021</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Part No.: LS1D-04021</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>E100.020344000</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Screw -LS1D-07037</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>LS1D-07037</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,218 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Sr No.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>P/N.</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Model NO.</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>QUANTITY</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>CTNS</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Carton MEASUREMENT</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>G.W (KG)</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>N.W(KG)</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Carton NO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>C100.C05-032-04-00</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Milling cutter</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Material: Tungsten Carbide Steel
-Mill Type: Standard Up Draft Type
-Tip Type: Standard Fish Tail Type
-Total Length: 38.1mm
-Knife Length: 12.5mm
-Handle Length: 25.6mm
-Shank Diameter: 3.175mm
-Kinfe Diameter: 1.6mm</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>F02</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>E100.020308001</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>长510MM 宽223MM  高11MM</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>F18-F20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>E100.020308001</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>长510MM 宽223MM  高11MM</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>F21</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2620,751 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Sr No.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>P/N.</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Model NO.</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>QUANTITY</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>CTNS</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Carton MEASUREMENT</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>G.W (KG)</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>N.W(KG)</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Carton NO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-05-01</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-K-5mm</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-K
-3.刀口宽度：5mm</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>465</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>F07</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-04-01</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Point Bit-900M-T-B-1.2mm</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-06-01</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-4C</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>900M-T-4C</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>546</v>
-      </c>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-2C</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>900M-T-2C</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900-T-1.2D</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>900-T-1.2D</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Soldering sponge-size:60mm X 55mm</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>size:60mm X 55mm</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-019-05-00</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>L*W 4*4CM 400pcs/bog</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>F08-F11</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30x75x4.0x1</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>6.30x75x4.0x1</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>F12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X3.0</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75X3.0</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>395</v>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X3.5</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75X3.5</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X2.5X1</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75X2.5X1</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT6</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT6</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT7</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT7</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT8</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>6.30X75XT8</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X100X3.8XT9</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>6.30X100X3.8XT9</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Screw bit-6.30X100X3.8XT10</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>6.30X100X3.8XT10</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>E100.019100006</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-50.60 mtrX300 mm</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>50.60 mtrX300 mm</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>F13-F15</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>E100.019100007</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-50.20mtrx400 mm</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>50.20mtrx400 mm</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>F16</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>E100.019100008</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-40.5mtrX300 mm</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>40.5mtrX300 mm</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>F17</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -20,8 +20,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,12 +35,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -53,10 +128,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -68,47 +161,217 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,11 +738,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -494,145 +756,349 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Packing List</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Shipper:</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Invoice No. ：</t>
+        </is>
+      </c>
+      <c r="H4" s="7">
+        <f>[1]CXCI2025012201!G4</f>
+        <v/>
+      </c>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="H6" s="11">
+        <f>[1]CXCI2025012201!G5</f>
+        <v/>
+      </c>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>Delivery Date:</t>
+        </is>
+      </c>
+      <c r="H7" s="11">
+        <f>H6</f>
+        <v/>
+      </c>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>Buyer :</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>Ship to :</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+      <c r="H14" s="4" t="n"/>
+      <c r="I14" s="4" t="n"/>
+      <c r="J14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
+      <c r="I15" s="4" t="n"/>
+      <c r="J15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>Sr No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>P/N.</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F16" s="15" t="inlineStr">
         <is>
           <t>CTNS</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G16" s="15" t="inlineStr">
         <is>
           <t>Carton MEASUREMENT</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H16" s="15" t="inlineStr">
         <is>
           <t>G.W (KG)</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I16" s="15" t="inlineStr">
         <is>
           <t>N.W(KG)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J16" s="15" t="inlineStr">
         <is>
           <t>Carton NO.</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="17">
+      <c r="A17" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D17" s="16" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E17" s="16" t="n">
         <v>7000</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G17" t="n">
         <v>0.01</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H17" t="n">
         <v>1.86</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I17" s="16" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>F01</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="18">
+      <c r="A18" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D18" s="16" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E18" s="16" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="3" t="n">
+      <c r="I18" s="16" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="5" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D19" s="16" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -644,42 +1110,42 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E19" s="16" t="n">
         <v>450</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F19" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G19" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H19" s="16" t="n">
         <v>2.42</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I19" s="16" t="n">
         <v>2.33</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J19" s="16" t="inlineStr">
         <is>
           <t>F02</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="20">
+      <c r="A20" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D20" s="16" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -687,1382 +1153,1359 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E20" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G20" t="n">
         <v>0.04</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H20" t="n">
         <v>10.24</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I20" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="21">
+      <c r="A21" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D21" s="16" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E21" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="3" t="n">
+      <c r="I21" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E22" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G22" s="16" t="n">
         <v>0.08</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H22" s="16" t="n">
         <v>6.92</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I22" s="16" t="n">
         <v>5.82</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J22" s="16" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="23">
+      <c r="A23" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D23" s="16" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E23" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F23" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G23" s="16" t="n">
         <v>0.12</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H23" s="16" t="n">
         <v>9.4</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I23" s="16" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J23" s="16" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="24">
+      <c r="A24" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C24" s="16" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D24" s="16" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E24" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F24" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G24" s="16" t="n">
         <v>0.06</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H24" s="16" t="n">
         <v>5.84</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I24" s="16" t="n">
         <v>5.69</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J24" s="16" t="inlineStr">
         <is>
           <t>F06</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="25">
+      <c r="A25" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B25" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D25" s="16" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E25" s="16" t="n">
         <v>465</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H25" t="n">
         <v>10.08</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I25" s="16" t="n">
         <v>2.56</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="26">
+      <c r="A26" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B26" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C26" s="16" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D26" s="16" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E26" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="3" t="n">
+      <c r="I26" s="16" t="n">
         <v>2.75</v>
       </c>
-      <c r="J11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B27" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C27" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D27" s="16" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E27" s="16" t="n">
         <v>546</v>
       </c>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="3" t="n">
+      <c r="I27" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B28" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C28" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D28" s="16" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E28" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="3" t="n">
+      <c r="I28" s="16" t="n">
         <v>0.22</v>
       </c>
-      <c r="J13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B29" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C29" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D29" s="16" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E29" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="n"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="3" t="n">
+      <c r="I29" s="16" t="n">
         <v>0.22</v>
       </c>
-      <c r="J14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B30" s="16" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C30" s="16" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D30" s="16" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E30" s="16" t="n">
         <v>250</v>
       </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="3" t="n">
+      <c r="I30" s="16" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="5" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B31" s="16" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C31" s="16" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D31" s="16" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E31" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F31" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G31" s="16" t="n">
         <v>0.04</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H31" s="16" t="n">
         <v>40.6</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I31" s="16" t="n">
         <v>40.3</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J31" s="16" t="inlineStr">
         <is>
           <t>F08-F11</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+    <row r="32">
+      <c r="A32" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B32" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C32" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D32" s="16" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E32" s="16" t="n">
         <v>400</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G32" t="n">
         <v>0.02</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H32" t="n">
         <v>15</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I32" s="16" t="n">
         <v>3.36</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
+    <row r="33">
+      <c r="A33" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B33" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C33" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D33" s="16" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E33" s="16" t="n">
         <v>395</v>
       </c>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
-      <c r="I18" s="3" t="n">
+      <c r="I33" s="16" t="n">
         <v>3.31</v>
       </c>
-      <c r="J18" s="6" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B34" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C34" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D34" s="16" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E34" s="16" t="n">
         <v>400</v>
       </c>
-      <c r="F19" s="6" t="n"/>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="6" t="n"/>
-      <c r="I19" s="3" t="n">
+      <c r="I34" s="16" t="n">
         <v>3.36</v>
       </c>
-      <c r="J19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B35" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C35" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D35" s="16" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E35" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="F20" s="6" t="n"/>
-      <c r="G20" s="6" t="n"/>
-      <c r="H20" s="6" t="n"/>
-      <c r="I20" s="3" t="n">
+      <c r="I35" s="16" t="n">
         <v>1.68</v>
       </c>
-      <c r="J20" s="6" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B36" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C36" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D36" s="16" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E36" s="16" t="n">
         <v>90</v>
       </c>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" s="6" t="n"/>
-      <c r="I21" s="3" t="n">
+      <c r="I36" s="16" t="n">
         <v>0.75</v>
       </c>
-      <c r="J21" s="6" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B37" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C37" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D37" s="16" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E37" s="16" t="n">
         <v>60</v>
       </c>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
-      <c r="H22" s="6" t="n"/>
-      <c r="I22" s="3" t="n">
+      <c r="I37" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="6" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B38" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C38" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D38" s="16" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E38" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="3" t="n">
+      <c r="I38" s="16" t="n">
         <v>0.42</v>
       </c>
-      <c r="J23" s="6" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B39" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C39" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D39" s="16" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E39" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
-      <c r="H24" s="6" t="n"/>
-      <c r="I24" s="3" t="n">
+      <c r="I39" s="16" t="n">
         <v>0.42</v>
       </c>
-      <c r="J24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
+    </row>
+    <row r="40">
+      <c r="A40" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B40" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C40" s="16" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D40" s="16" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E40" s="16" t="n">
         <v>110</v>
       </c>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
-      <c r="I25" s="3" t="n">
+      <c r="I40" s="16" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="5" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B41" s="16" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C41" s="16" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D41" s="16" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E41" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F41" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G41" s="16" t="n">
         <v>0.06</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H41" s="16" t="n">
         <v>60</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I41" s="16" t="n">
         <v>57</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J41" s="16" t="inlineStr">
         <is>
           <t>F13-F15</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
+    <row r="42">
+      <c r="A42" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B42" s="16" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C42" s="16" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D42" s="16" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G42" s="16" t="n">
         <v>0.06</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H42" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I42" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J42" s="16" t="inlineStr">
         <is>
           <t>F16</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
+    <row r="43">
+      <c r="A43" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B43" s="16" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C43" s="16" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D43" s="16" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E43" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F43" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G43" s="16" t="n">
         <v>0.06</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H43" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I43" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="J43" s="16" t="inlineStr">
         <is>
           <t>F17</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
+    <row r="44">
+      <c r="A44" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B44" s="16" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C44" s="16" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D44" s="16" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E44" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F44" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G44" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H44" s="16" t="n">
         <v>30.9</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I44" s="16" t="n">
         <v>30.52</v>
       </c>
-      <c r="J29" s="3" t="inlineStr">
+      <c r="J44" s="16" t="inlineStr">
         <is>
           <t>F18-F20</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
+    <row r="45">
+      <c r="A45" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B45" s="16" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C45" s="16" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D45" s="16" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E45" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F45" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G45" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H45" s="16" t="n">
         <v>5.16</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I45" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J45" s="16" t="inlineStr">
         <is>
           <t>F21</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
+    <row r="46">
+      <c r="A46" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B46" s="16" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C46" s="16" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D46" s="16" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E46" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F46" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G46" t="n">
         <v>0.01</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H46" t="n">
         <v>0.58</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I46" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
+    <row r="47">
+      <c r="A47" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B47" s="16" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C47" s="16" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D47" s="16" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E47" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="6" t="n"/>
-      <c r="G32" s="6" t="n"/>
-      <c r="H32" s="6" t="n"/>
-      <c r="I32" s="3" t="n">
+      <c r="I47" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" s="6" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B48" s="16" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C48" s="16" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D48" s="16" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E48" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="6" t="n"/>
-      <c r="G33" s="6" t="n"/>
-      <c r="H33" s="6" t="n"/>
-      <c r="I33" s="3" t="n">
+      <c r="I48" s="16" t="n">
         <v>0.02</v>
       </c>
-      <c r="J33" s="6" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B49" s="16" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C49" s="16" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D49" s="16" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E49" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="6" t="n"/>
-      <c r="G34" s="6" t="n"/>
-      <c r="H34" s="6" t="n"/>
-      <c r="I34" s="3" t="n">
+      <c r="I49" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="J34" s="6" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B50" s="16" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C50" s="16" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D50" s="16" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E50" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="6" t="n"/>
-      <c r="G35" s="6" t="n"/>
-      <c r="H35" s="6" t="n"/>
-      <c r="I35" s="3" t="n">
+      <c r="I50" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="J35" s="6" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B51" s="16" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C51" s="16" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D51" s="16" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E51" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F36" s="6" t="n"/>
-      <c r="G36" s="6" t="n"/>
-      <c r="H36" s="6" t="n"/>
-      <c r="I36" s="3" t="n">
+      <c r="I51" s="16" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="6" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B52" s="16" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C52" s="16" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D52" s="16" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E52" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F37" s="6" t="n"/>
-      <c r="G37" s="6" t="n"/>
-      <c r="H37" s="6" t="n"/>
-      <c r="I37" s="3" t="n">
+      <c r="I52" s="16" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="6" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B53" s="16" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C53" s="16" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D53" s="16" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E53" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F38" s="6" t="n"/>
-      <c r="G38" s="6" t="n"/>
-      <c r="H38" s="6" t="n"/>
-      <c r="I38" s="3" t="n">
+      <c r="I53" s="16" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="6" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B54" s="16" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C54" s="16" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D54" s="16" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E54" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="6" t="n"/>
-      <c r="G39" s="6" t="n"/>
-      <c r="H39" s="6" t="n"/>
-      <c r="I39" s="3" t="n">
+      <c r="I54" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" s="6" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B55" s="16" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C55" s="16" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D55" s="16" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E55" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n"/>
-      <c r="I40" s="3" t="n">
+      <c r="I55" s="16" t="n">
         <v>0.03</v>
       </c>
-      <c r="J40" s="5" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n">
+    </row>
+    <row r="56">
+      <c r="A56" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B56" s="16" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C56" s="16" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D56" s="16" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E56" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F56" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G56" s="16" t="n">
         <v>0.04</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H56" s="16" t="n">
         <v>7.54</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I56" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="J56" s="16" t="inlineStr">
         <is>
           <t>F23</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
+    <row r="57">
+      <c r="A57" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B57" s="16" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C57" s="16" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D57" s="16" t="inlineStr">
         <is>
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E57" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F57" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G57" s="16" t="n">
         <v>0.04</v>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="H57" s="16" t="n">
         <v>7.54</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I57" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="J57" s="16" t="inlineStr">
         <is>
           <t>F24</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="n">
+    <row r="58">
+      <c r="A58" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B58" s="16" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C58" s="16" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D58" s="16" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E58" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F58" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G58" t="n">
         <v>0.04</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H58" t="n">
         <v>11.08</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I58" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>F25</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
+    <row r="59">
+      <c r="A59" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B59" s="16" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C59" s="16" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D59" s="16" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E59" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="5" t="n"/>
-      <c r="I44" s="3" t="n">
+      <c r="I59" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="5" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="17" t="inlineStr">
+        <is>
+          <t>PACKED IN 168 PACKAGES ONLY.</t>
+        </is>
+      </c>
+      <c r="B60" s="18" t="n"/>
+      <c r="C60" s="19" t="n"/>
+      <c r="D60" s="19" t="n"/>
+      <c r="E60" s="19" t="n"/>
+      <c r="F60" s="19" t="n"/>
+      <c r="G60" s="19" t="n"/>
+      <c r="H60" s="20" t="n"/>
+      <c r="I60" s="19" t="n"/>
+      <c r="J60" s="21" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="22" t="inlineStr">
+        <is>
+          <t>NET WEIGHT: 3156.66  KGS</t>
+        </is>
+      </c>
+      <c r="B61" s="23" t="n"/>
+      <c r="H61" s="24" t="n"/>
+      <c r="J61" s="25" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="22" t="inlineStr">
+        <is>
+          <t>GROSS WEIGHT:  3374.84 KGS</t>
+        </is>
+      </c>
+      <c r="B62" s="23" t="n"/>
+      <c r="H62" s="24" t="n"/>
+      <c r="J62" s="25" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="22" t="inlineStr">
+        <is>
+          <t>TOTAL MEASUREMENT:18.32 CBM</t>
+        </is>
+      </c>
+      <c r="B63" s="23" t="n"/>
+      <c r="H63" s="24" t="n"/>
+      <c r="J63" s="25" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="26" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B64" s="27" t="n"/>
+      <c r="C64" s="28" t="n"/>
+      <c r="D64" s="28" t="n"/>
+      <c r="E64" s="28" t="n"/>
+      <c r="F64" s="28" t="n"/>
+      <c r="G64" s="28" t="n"/>
+      <c r="H64" s="29" t="n"/>
+      <c r="I64" s="28" t="n"/>
+      <c r="J64" s="30" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="H17:H25"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="J17:J25"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J31:J40"/>
+  <mergeCells count="35">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F32:F40"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J46:J55"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="G46:G55"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G32:G40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H46:H55"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="F46:F55"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2074,82 +2517,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
+    <col width="26" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
+    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
+    <col width="9" customWidth="1" style="19" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="n"/>
+      <c r="C4" s="32" t="n"/>
+      <c r="D4" s="32" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CI No.: </t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D5" s="35" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>45679</v>
+      </c>
+      <c r="H5" s="38" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="41" t="inlineStr">
+        <is>
+          <t>PO No.:</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="42" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="8">
+      <c r="A8" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -2157,299 +2685,369 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E8" s="16" t="n">
         <v>3.67969893</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F8" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H8" s="16" t="n">
         <v>110.3909679</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="9">
+      <c r="A9" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E9" s="16" t="n">
         <v>6.28615235</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F9" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G9" s="16" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H9" s="16" t="n">
         <v>37.7169141</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="10">
+      <c r="A10" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E10" s="16" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F10" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H10" s="16" t="n">
         <v>53.35563453</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="11">
+      <c r="A11" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E11" s="16" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F11" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G11" s="16" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H11" s="16" t="n">
         <v>71.14084604</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="12">
+      <c r="A12" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E12" s="16" t="n">
         <v>24.53132622</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F12" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G12" s="16" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H12" s="16" t="n">
         <v>49.06265244</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="13">
+      <c r="A13" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E13" s="16" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F13" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G13" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H13" s="16" t="n">
         <v>133.80723396</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="14">
+      <c r="A14" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
         <is>
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E14" s="16" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F14" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G14" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H14" s="16" t="n">
         <v>133.80723396</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="15">
+      <c r="A15" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D15" s="16" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E15" s="16" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F15" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G15" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H15" s="16" t="n">
         <v>128.23193254</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="16">
+      <c r="A16" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D16" s="16" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E16" s="16" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F16" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G16" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H16" s="16" t="n">
         <v>128.23193254</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="43" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B18" s="44" t="n"/>
+      <c r="C18" s="45" t="n"/>
+      <c r="D18" s="45" t="n"/>
+      <c r="E18" s="45" t="n"/>
+      <c r="F18" s="45" t="n"/>
+      <c r="G18" s="45" t="n"/>
+      <c r="H18" s="46" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="43" t="inlineStr">
+        <is>
+          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B19" s="44" t="n"/>
+      <c r="C19" s="45" t="n"/>
+      <c r="D19" s="45" t="n"/>
+      <c r="E19" s="45" t="n"/>
+      <c r="F19" s="45" t="n"/>
+      <c r="G19" s="45" t="n"/>
+      <c r="H19" s="46" t="n"/>
+      <c r="I19" s="47" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="48" t="inlineStr">
+        <is>
+          <t>Delivery Term:CIF</t>
+        </is>
+      </c>
+      <c r="B20" s="49" t="n"/>
+      <c r="C20" s="45" t="n"/>
+      <c r="D20" s="45" t="n"/>
+      <c r="E20" s="45" t="n"/>
+      <c r="F20" s="45" t="n"/>
+      <c r="G20" s="45" t="n"/>
+      <c r="H20" s="46" t="n"/>
+      <c r="I20" s="33" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
+Account number：8110301012800584376
+Bank Name: China citic bank shenzhen branch
+Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china
+SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A17:H17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2460,476 +3058,631 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
+    <col width="26" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
+    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
+    <col width="9" customWidth="1" style="19" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="n"/>
+      <c r="C4" s="32" t="n"/>
+      <c r="D4" s="32" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CI No.: </t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D5" s="35" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>45679</v>
+      </c>
+      <c r="H5" s="38" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="41" t="inlineStr">
+        <is>
+          <t>PO No.:</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="42" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="8">
+      <c r="A8" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E8" s="16" t="n">
         <v>0.00278765</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F8" s="16" t="n">
         <v>7000</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H8" s="16" t="n">
         <v>19.51355</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="9">
+      <c r="A9" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E9" s="16" t="n">
         <v>0.00696913</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F9" s="16" t="n">
         <v>3000</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G9" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H9" s="16" t="n">
         <v>20.90739</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="10">
+      <c r="A10" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E10" s="16" t="n">
         <v>1.10251585</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F10" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H10" s="16" t="n">
         <v>5.51257925</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="11">
+      <c r="A11" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E11" s="16" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F11" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G11" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H11" s="16" t="n">
         <v>13.93825355</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="12">
+      <c r="A12" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E12" s="16" t="n">
         <v>9.75677748</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F12" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G12" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H12" s="16" t="n">
         <v>19.51355496</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="13">
+      <c r="A13" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E13" s="16" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F13" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G13" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H13" s="16" t="n">
         <v>13.93825355</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="14">
+      <c r="A14" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E14" s="16" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F14" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G14" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H14" s="16" t="n">
         <v>13.93825355</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="15">
+      <c r="A15" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D15" s="16" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E15" s="16" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F15" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G15" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H15" s="16" t="n">
         <v>2.7876508</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="16">
+      <c r="A16" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D16" s="16" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E16" s="16" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F16" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G16" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H16" s="16" t="n">
         <v>2.7876508</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="17">
+      <c r="A17" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D17" s="16" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E17" s="16" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F17" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G17" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H17" s="16" t="n">
         <v>2.7876508</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    <row r="18">
+      <c r="A18" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D18" s="16" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E18" s="16" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F18" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H18" s="16" t="n">
         <v>30.38539271</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    <row r="19">
+      <c r="A19" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D19" s="16" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E19" s="16" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F19" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G19" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H19" s="16" t="n">
         <v>13.938254</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B21" s="44" t="n"/>
+      <c r="C21" s="45" t="n"/>
+      <c r="D21" s="45" t="n"/>
+      <c r="E21" s="45" t="n"/>
+      <c r="F21" s="45" t="n"/>
+      <c r="G21" s="45" t="n"/>
+      <c r="H21" s="46" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B22" s="44" t="n"/>
+      <c r="C22" s="45" t="n"/>
+      <c r="D22" s="45" t="n"/>
+      <c r="E22" s="45" t="n"/>
+      <c r="F22" s="45" t="n"/>
+      <c r="G22" s="45" t="n"/>
+      <c r="H22" s="46" t="n"/>
+      <c r="I22" s="47" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="48" t="inlineStr">
+        <is>
+          <t>Delivery Term:CIF</t>
+        </is>
+      </c>
+      <c r="B23" s="49" t="n"/>
+      <c r="C23" s="45" t="n"/>
+      <c r="D23" s="45" t="n"/>
+      <c r="E23" s="45" t="n"/>
+      <c r="F23" s="45" t="n"/>
+      <c r="G23" s="45" t="n"/>
+      <c r="H23" s="46" t="n"/>
+      <c r="I23" s="33" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
+Account number：8110301012800584376
+Bank Name: China citic bank shenzhen branch
+Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china
+SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2940,82 +3693,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
+    <col width="26" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
+    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
+    <col width="9" customWidth="1" style="19" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="n"/>
+      <c r="C4" s="32" t="n"/>
+      <c r="D4" s="32" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CI No.: </t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D5" s="35" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>45679</v>
+      </c>
+      <c r="H5" s="38" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="41" t="inlineStr">
+        <is>
+          <t>PO No.:</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="42" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="8">
+      <c r="A8" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -3027,90 +3865,160 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E8" s="16" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F8" s="16" t="n">
         <v>450</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H8" s="16" t="n">
         <v>313.610706</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="9">
+      <c r="A9" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E9" s="16" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F9" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G9" s="16" t="inlineStr">
         <is>
           <t>件</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H9" s="16" t="n">
         <v>585.40664856</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="10">
+      <c r="A10" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E10" s="16" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F10" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>件</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H10" s="16" t="n">
         <v>97.56777476000001</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B12" s="44" t="n"/>
+      <c r="C12" s="45" t="n"/>
+      <c r="D12" s="45" t="n"/>
+      <c r="E12" s="45" t="n"/>
+      <c r="F12" s="45" t="n"/>
+      <c r="G12" s="45" t="n"/>
+      <c r="H12" s="46" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B13" s="44" t="n"/>
+      <c r="C13" s="45" t="n"/>
+      <c r="D13" s="45" t="n"/>
+      <c r="E13" s="45" t="n"/>
+      <c r="F13" s="45" t="n"/>
+      <c r="G13" s="45" t="n"/>
+      <c r="H13" s="46" t="n"/>
+      <c r="I13" s="47" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="48" t="inlineStr">
+        <is>
+          <t>Delivery Term:CIF</t>
+        </is>
+      </c>
+      <c r="B14" s="49" t="n"/>
+      <c r="C14" s="45" t="n"/>
+      <c r="D14" s="45" t="n"/>
+      <c r="E14" s="45" t="n"/>
+      <c r="F14" s="45" t="n"/>
+      <c r="G14" s="45" t="n"/>
+      <c r="H14" s="46" t="n"/>
+      <c r="I14" s="33" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
+Account number：8110301012800584376
+Bank Name: China citic bank shenzhen branch
+Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china
+SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3121,718 +4029,873 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
+    <col width="26" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
+    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
+    <col width="9" customWidth="1" style="19" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="n"/>
+      <c r="C4" s="32" t="n"/>
+      <c r="D4" s="32" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CI No.: </t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+        </is>
+      </c>
+      <c r="D5" s="35" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>45679</v>
+      </c>
+      <c r="H5" s="38" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="41" t="inlineStr">
+        <is>
+          <t>PO No.:</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="42" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="8">
+      <c r="A8" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E8" s="16" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F8" s="16" t="n">
         <v>465</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H8" s="16" t="n">
         <v>324.0643962</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="9">
+      <c r="A9" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E9" s="16" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F9" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G9" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H9" s="16" t="n">
         <v>348.45634</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="10">
+      <c r="A10" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E10" s="16" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F10" s="16" t="n">
         <v>546</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H10" s="16" t="n">
         <v>380.51432328</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="11">
+      <c r="A11" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E11" s="16" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F11" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G11" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H11" s="16" t="n">
         <v>27.8765072</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="12">
+      <c r="A12" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E12" s="16" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F12" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G12" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H12" s="16" t="n">
         <v>27.8765072</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="13">
+      <c r="A13" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E13" s="16" t="n">
         <v>0.13798871</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F13" s="16" t="n">
         <v>250</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G13" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H13" s="16" t="n">
         <v>34.4971775</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="14">
+      <c r="A14" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E14" s="16" t="n">
         <v>4.10063419</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F14" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G14" s="16" t="inlineStr">
         <is>
           <t>包</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H14" s="16" t="n">
         <v>410.063419</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="15">
+      <c r="A15" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D15" s="16" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E15" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F15" s="16" t="n">
         <v>400</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G15" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H15" s="16" t="n">
         <v>73.59398</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="16">
+      <c r="A16" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D16" s="16" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E16" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F16" s="16" t="n">
         <v>395</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G16" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H16" s="16" t="n">
         <v>72.67405524999999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="17">
+      <c r="A17" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D17" s="16" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E17" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F17" s="16" t="n">
         <v>400</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G17" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H17" s="16" t="n">
         <v>73.59398</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    <row r="18">
+      <c r="A18" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D18" s="16" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E18" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F18" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H18" s="16" t="n">
         <v>36.79699</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    <row r="19">
+      <c r="A19" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D19" s="16" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E19" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F19" s="16" t="n">
         <v>90</v>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G19" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H19" s="16" t="n">
         <v>16.5586455</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
+    <row r="20">
+      <c r="A20" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D20" s="16" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E20" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F20" s="16" t="n">
         <v>60</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G20" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H20" s="16" t="n">
         <v>11.039097</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
+    <row r="21">
+      <c r="A21" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D21" s="16" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E21" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F21" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G21" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H21" s="16" t="n">
         <v>9.1992475</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
+    <row r="22">
+      <c r="A22" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E22" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F22" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G22" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H22" s="16" t="n">
         <v>9.1992475</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+    <row r="23">
+      <c r="A23" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D23" s="16" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E23" s="16" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F23" s="16" t="n">
         <v>110</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G23" s="16" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H23" s="16" t="n">
         <v>20.2383445</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
+    <row r="24">
+      <c r="A24" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C24" s="16" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D24" s="16" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E24" s="16" t="n">
         <v>153.79468953</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F24" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G24" s="16" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H24" s="16" t="n">
         <v>461.38406859</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
+    <row r="25">
+      <c r="A25" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B25" s="16" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D25" s="16" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E25" s="16" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F25" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G25" s="16" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H25" s="16" t="n">
         <v>203.47062513</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
+    <row r="26">
+      <c r="A26" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B26" s="16" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C26" s="16" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D26" s="16" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E26" s="16" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F26" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G26" s="16" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H26" s="16" t="n">
         <v>123.06084048</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>COUNTRY OF ORIGIN: CHINA</t>
+        </is>
+      </c>
+      <c r="B28" s="44" t="n"/>
+      <c r="C28" s="45" t="n"/>
+      <c r="D28" s="45" t="n"/>
+      <c r="E28" s="45" t="n"/>
+      <c r="F28" s="45" t="n"/>
+      <c r="G28" s="45" t="n"/>
+      <c r="H28" s="46" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
+        </is>
+      </c>
+      <c r="B29" s="44" t="n"/>
+      <c r="C29" s="45" t="n"/>
+      <c r="D29" s="45" t="n"/>
+      <c r="E29" s="45" t="n"/>
+      <c r="F29" s="45" t="n"/>
+      <c r="G29" s="45" t="n"/>
+      <c r="H29" s="46" t="n"/>
+      <c r="I29" s="47" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="48" t="inlineStr">
+        <is>
+          <t>Delivery Term:CIF</t>
+        </is>
+      </c>
+      <c r="B30" s="49" t="n"/>
+      <c r="C30" s="45" t="n"/>
+      <c r="D30" s="45" t="n"/>
+      <c r="E30" s="45" t="n"/>
+      <c r="F30" s="45" t="n"/>
+      <c r="G30" s="45" t="n"/>
+      <c r="H30" s="46" t="n"/>
+      <c r="I30" s="33" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
+Account number：8110301012800584376
+Bank Name: China citic bank shenzhen branch
+Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china
+SWIFT No.: CIBKCNBJ518</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A31:H31"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -21,18 +21,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="167" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="26"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -91,10 +111,25 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
       <color indexed="8"/>
-      <sz val="11"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="20"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -128,12 +163,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -155,23 +205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -185,6 +218,68 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -222,157 +317,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="70">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -748,357 +959,389 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Packing List</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Shipper:</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Invoice No. ：</t>
         </is>
       </c>
-      <c r="H4" s="7">
-        <f>[1]CXCI2025012201!G4</f>
-        <v/>
-      </c>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="8" t="n"/>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>CXCI2025012201</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="13" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="8" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="13" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="A6" s="6" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="H6" s="11">
-        <f>[1]CXCI2025012201!G5</f>
-        <v/>
-      </c>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="8" t="n"/>
+      <c r="H6" s="16" t="n">
+        <v>45679</v>
+      </c>
+      <c r="I6" s="10" t="n"/>
+      <c r="J6" s="13" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Delivery Date:</t>
         </is>
       </c>
-      <c r="H7" s="11">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="8" t="n"/>
+      <c r="H7" s="16" t="n">
+        <v>45679</v>
+      </c>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="13" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>Buyer :</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="8" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="13" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="20" t="n"/>
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="8" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="n"/>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="8" t="n"/>
+      <c r="A10" s="20" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="12" t="n"/>
+      <c r="H10" s="12" t="n"/>
+      <c r="I10" s="19" t="n"/>
+      <c r="J10" s="13" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="8" t="n"/>
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="12" t="n"/>
+      <c r="I11" s="10" t="n"/>
+      <c r="J11" s="13" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="inlineStr">
+      <c r="A12" s="17" t="inlineStr">
         <is>
           <t>Ship to :</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
         </is>
       </c>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="8" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="12" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="13" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="20" t="n"/>
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="8" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="12" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="13" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="8" t="n"/>
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="21" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="13" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="8" t="n"/>
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="13" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="23" t="inlineStr">
         <is>
           <t>Sr No.</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="23" t="inlineStr">
         <is>
           <t>P/N.</t>
         </is>
       </c>
-      <c r="C16" s="15" t="inlineStr">
+      <c r="C16" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D16" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="E16" s="23" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="F16" s="15" t="inlineStr">
+      <c r="F16" s="23" t="inlineStr">
         <is>
           <t>CTNS</t>
         </is>
       </c>
-      <c r="G16" s="15" t="inlineStr">
+      <c r="G16" s="23" t="inlineStr">
         <is>
           <t>Carton MEASUREMENT</t>
         </is>
       </c>
-      <c r="H16" s="15" t="inlineStr">
+      <c r="H16" s="23" t="inlineStr">
         <is>
           <t>G.W (KG)</t>
         </is>
       </c>
-      <c r="I16" s="15" t="inlineStr">
+      <c r="I16" s="23" t="inlineStr">
         <is>
           <t>N.W(KG)</t>
         </is>
       </c>
-      <c r="J16" s="15" t="inlineStr">
+      <c r="J16" s="23" t="inlineStr">
         <is>
           <t>Carton NO.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D17" s="16" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="24" t="n">
         <v>7000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="25" t="n">
         <v>1.86</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="24" t="n">
         <v>1.19</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="25" t="inlineStr">
         <is>
           <t>F01</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="24" t="n">
         <v>3000</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="F18" s="26" t="n"/>
+      <c r="G18" s="26" t="n"/>
+      <c r="H18" s="26" t="n"/>
+      <c r="I18" s="24" t="n">
         <v>0.51</v>
       </c>
+      <c r="J18" s="26" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -1110,42 +1353,42 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="24" t="n">
         <v>2.42</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="24" t="n">
         <v>2.33</v>
       </c>
-      <c r="J19" s="16" t="inlineStr">
+      <c r="J19" s="24" t="inlineStr">
         <is>
           <t>F02</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="24" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C20" s="16" t="inlineStr">
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D20" s="16" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -1153,1321 +1396,1435 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="25" t="n">
         <v>0.04</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="25" t="n">
         <v>10.24</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="25" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="24" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C21" s="16" t="inlineStr">
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="F21" s="26" t="n"/>
+      <c r="G21" s="26" t="n"/>
+      <c r="H21" s="26" t="n"/>
+      <c r="I21" s="24" t="n">
         <v>3</v>
       </c>
+      <c r="J21" s="26" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="inlineStr">
+      <c r="B22" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C22" s="16" t="inlineStr">
+      <c r="C22" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="24" t="n">
         <v>0.08</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="24" t="n">
         <v>6.92</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="24" t="n">
         <v>5.82</v>
       </c>
-      <c r="J22" s="16" t="inlineStr">
+      <c r="J22" s="24" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B23" s="16" t="inlineStr">
+      <c r="B23" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C23" s="16" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="24" t="n">
         <v>0.12</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H23" s="24" t="n">
         <v>9.4</v>
       </c>
-      <c r="I23" s="16" t="n">
+      <c r="I23" s="24" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J23" s="16" t="inlineStr">
+      <c r="J23" s="24" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B24" s="16" t="inlineStr">
+      <c r="B24" s="24" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C24" s="16" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D24" s="16" t="inlineStr">
+      <c r="D24" s="24" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="24" t="n">
         <v>5.84</v>
       </c>
-      <c r="I24" s="16" t="n">
+      <c r="I24" s="24" t="n">
         <v>5.69</v>
       </c>
-      <c r="J24" s="16" t="inlineStr">
+      <c r="J24" s="24" t="inlineStr">
         <is>
           <t>F06</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="inlineStr">
+      <c r="B25" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C25" s="16" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D25" s="16" t="inlineStr">
+      <c r="D25" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="25" t="n">
         <v>10.08</v>
       </c>
-      <c r="I25" s="16" t="n">
+      <c r="I25" s="24" t="n">
         <v>2.56</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="25" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="16" t="inlineStr">
+      <c r="B26" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="24" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D26" s="16" t="inlineStr">
+      <c r="D26" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="I26" s="16" t="n">
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="24" t="n">
         <v>2.75</v>
       </c>
+      <c r="J26" s="27" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B27" s="16" t="inlineStr">
+      <c r="B27" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C27" s="16" t="inlineStr">
+      <c r="C27" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D27" s="16" t="inlineStr">
+      <c r="D27" s="24" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E27" s="16" t="n">
+      <c r="E27" s="24" t="n">
         <v>546</v>
       </c>
-      <c r="I27" s="16" t="n">
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+      <c r="I27" s="24" t="n">
         <v>3</v>
       </c>
+      <c r="J27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B28" s="16" t="inlineStr">
+      <c r="B28" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C28" s="16" t="inlineStr">
+      <c r="C28" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D28" s="16" t="inlineStr">
+      <c r="D28" s="24" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E28" s="16" t="n">
+      <c r="E28" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="I28" s="16" t="n">
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="27" t="n"/>
+      <c r="I28" s="24" t="n">
         <v>0.22</v>
       </c>
+      <c r="J28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="16" t="inlineStr">
+      <c r="B29" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C29" s="16" t="inlineStr">
+      <c r="C29" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D29" s="16" t="inlineStr">
+      <c r="D29" s="24" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E29" s="16" t="n">
+      <c r="E29" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="I29" s="16" t="n">
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="27" t="n"/>
+      <c r="I29" s="24" t="n">
         <v>0.22</v>
       </c>
+      <c r="J29" s="27" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B30" s="16" t="inlineStr">
+      <c r="B30" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C30" s="16" t="inlineStr">
+      <c r="C30" s="24" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D30" s="16" t="inlineStr">
+      <c r="D30" s="24" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E30" s="16" t="n">
+      <c r="E30" s="24" t="n">
         <v>250</v>
       </c>
-      <c r="I30" s="16" t="n">
+      <c r="F30" s="26" t="n"/>
+      <c r="G30" s="26" t="n"/>
+      <c r="H30" s="26" t="n"/>
+      <c r="I30" s="24" t="n">
         <v>0.2</v>
       </c>
+      <c r="J30" s="26" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="n">
+      <c r="A31" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B31" s="16" t="inlineStr">
+      <c r="B31" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C31" s="16" t="inlineStr">
+      <c r="C31" s="24" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D31" s="16" t="inlineStr">
+      <c r="D31" s="24" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="F31" s="16" t="n">
+      <c r="F31" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="16" t="n">
+      <c r="G31" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H31" s="16" t="n">
+      <c r="H31" s="24" t="n">
         <v>40.6</v>
       </c>
-      <c r="I31" s="16" t="n">
+      <c r="I31" s="24" t="n">
         <v>40.3</v>
       </c>
-      <c r="J31" s="16" t="inlineStr">
+      <c r="J31" s="24" t="inlineStr">
         <is>
           <t>F08-F11</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="n">
+      <c r="A32" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B32" s="16" t="inlineStr">
+      <c r="B32" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C32" s="16" t="inlineStr">
+      <c r="C32" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D32" s="16" t="inlineStr">
+      <c r="D32" s="24" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="25" t="n">
         <v>0.02</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="I32" s="16" t="n">
+      <c r="I32" s="24" t="n">
         <v>3.36</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="25" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="n">
+      <c r="A33" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B33" s="16" t="inlineStr">
+      <c r="B33" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C33" s="16" t="inlineStr">
+      <c r="C33" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D33" s="16" t="inlineStr">
+      <c r="D33" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="24" t="n">
         <v>395</v>
       </c>
-      <c r="I33" s="16" t="n">
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="24" t="n">
         <v>3.31</v>
       </c>
+      <c r="J33" s="27" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="n">
+      <c r="A34" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B34" s="16" t="inlineStr">
+      <c r="B34" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C34" s="16" t="inlineStr">
+      <c r="C34" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D34" s="16" t="inlineStr">
+      <c r="D34" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="I34" s="16" t="n">
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="24" t="n">
         <v>3.36</v>
       </c>
+      <c r="J34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="n">
+      <c r="A35" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B35" s="16" t="inlineStr">
+      <c r="B35" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C35" s="16" t="inlineStr">
+      <c r="C35" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D35" s="16" t="inlineStr">
+      <c r="D35" s="24" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="I35" s="16" t="n">
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="24" t="n">
         <v>1.68</v>
       </c>
+      <c r="J35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="n">
+      <c r="A36" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B36" s="16" t="inlineStr">
+      <c r="B36" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C36" s="16" t="inlineStr">
+      <c r="C36" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D36" s="16" t="inlineStr">
+      <c r="D36" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E36" s="16" t="n">
+      <c r="E36" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="I36" s="16" t="n">
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="24" t="n">
         <v>0.75</v>
       </c>
+      <c r="J36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="n">
+      <c r="A37" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B37" s="16" t="inlineStr">
+      <c r="B37" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C37" s="16" t="inlineStr">
+      <c r="C37" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D37" s="16" t="inlineStr">
+      <c r="D37" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E37" s="16" t="n">
+      <c r="E37" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="I37" s="16" t="n">
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="J37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="n">
+      <c r="A38" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B38" s="16" t="inlineStr">
+      <c r="B38" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C38" s="16" t="inlineStr">
+      <c r="C38" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D38" s="16" t="inlineStr">
+      <c r="D38" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E38" s="16" t="n">
+      <c r="E38" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="I38" s="16" t="n">
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="24" t="n">
         <v>0.42</v>
       </c>
+      <c r="J38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="n">
+      <c r="A39" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B39" s="16" t="inlineStr">
+      <c r="B39" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C39" s="16" t="inlineStr">
+      <c r="C39" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D39" s="16" t="inlineStr">
+      <c r="D39" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="I39" s="16" t="n">
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="24" t="n">
         <v>0.42</v>
       </c>
+      <c r="J39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="16" t="n">
+      <c r="A40" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B40" s="16" t="inlineStr">
+      <c r="B40" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C40" s="16" t="inlineStr">
+      <c r="C40" s="24" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D40" s="16" t="inlineStr">
+      <c r="D40" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="I40" s="16" t="n">
+      <c r="F40" s="26" t="n"/>
+      <c r="G40" s="26" t="n"/>
+      <c r="H40" s="26" t="n"/>
+      <c r="I40" s="24" t="n">
         <v>0.92</v>
       </c>
+      <c r="J40" s="26" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="16" t="n">
+      <c r="A41" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B41" s="16" t="inlineStr">
+      <c r="B41" s="24" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C41" s="16" t="inlineStr">
+      <c r="C41" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D41" s="16" t="inlineStr">
+      <c r="D41" s="24" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F41" s="16" t="n">
+      <c r="F41" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G41" s="16" t="n">
+      <c r="G41" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H41" s="16" t="n">
+      <c r="H41" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="I41" s="16" t="n">
+      <c r="I41" s="24" t="n">
         <v>57</v>
       </c>
-      <c r="J41" s="16" t="inlineStr">
+      <c r="J41" s="24" t="inlineStr">
         <is>
           <t>F13-F15</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="n">
+      <c r="A42" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B42" s="16" t="inlineStr">
+      <c r="B42" s="24" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C42" s="16" t="inlineStr">
+      <c r="C42" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D42" s="16" t="inlineStr">
+      <c r="D42" s="24" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E42" s="16" t="n">
+      <c r="E42" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="16" t="n">
+      <c r="F42" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="16" t="n">
+      <c r="G42" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H42" s="16" t="n">
+      <c r="H42" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I42" s="16" t="n">
+      <c r="I42" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="J42" s="16" t="inlineStr">
+      <c r="J42" s="24" t="inlineStr">
         <is>
           <t>F16</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="16" t="n">
+      <c r="A43" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B43" s="16" t="inlineStr">
+      <c r="B43" s="24" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C43" s="16" t="inlineStr">
+      <c r="C43" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D43" s="16" t="inlineStr">
+      <c r="D43" s="24" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F43" s="16" t="n">
+      <c r="F43" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="16" t="n">
+      <c r="G43" s="24" t="n">
         <v>0.06</v>
       </c>
-      <c r="H43" s="16" t="n">
+      <c r="H43" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I43" s="16" t="n">
+      <c r="I43" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="J43" s="16" t="inlineStr">
+      <c r="J43" s="24" t="inlineStr">
         <is>
           <t>F17</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="n">
+      <c r="A44" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B44" s="16" t="inlineStr">
+      <c r="B44" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C44" s="16" t="inlineStr">
+      <c r="C44" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D44" s="16" t="inlineStr">
+      <c r="D44" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E44" s="16" t="n">
+      <c r="E44" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F44" s="16" t="n">
+      <c r="F44" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="G44" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H44" s="16" t="n">
+      <c r="H44" s="24" t="n">
         <v>30.9</v>
       </c>
-      <c r="I44" s="16" t="n">
+      <c r="I44" s="24" t="n">
         <v>30.52</v>
       </c>
-      <c r="J44" s="16" t="inlineStr">
+      <c r="J44" s="24" t="inlineStr">
         <is>
           <t>F18-F20</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="n">
+      <c r="A45" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B45" s="16" t="inlineStr">
+      <c r="B45" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C45" s="16" t="inlineStr">
+      <c r="C45" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D45" s="16" t="inlineStr">
+      <c r="D45" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E45" s="16" t="n">
+      <c r="E45" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="16" t="n">
+      <c r="F45" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="16" t="n">
+      <c r="G45" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="H45" s="16" t="n">
+      <c r="H45" s="24" t="n">
         <v>5.16</v>
       </c>
-      <c r="I45" s="16" t="n">
+      <c r="I45" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J45" s="16" t="inlineStr">
+      <c r="J45" s="24" t="inlineStr">
         <is>
           <t>F21</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="16" t="n">
+      <c r="A46" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B46" s="16" t="inlineStr">
+      <c r="B46" s="24" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C46" s="16" t="inlineStr">
+      <c r="C46" s="24" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D46" s="16" t="inlineStr">
+      <c r="D46" s="24" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="25" t="n">
         <v>0.58</v>
       </c>
-      <c r="I46" s="16" t="n">
+      <c r="I46" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="25" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="16" t="n">
+      <c r="A47" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B47" s="16" t="inlineStr">
+      <c r="B47" s="24" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C47" s="16" t="inlineStr">
+      <c r="C47" s="24" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D47" s="16" t="inlineStr">
+      <c r="D47" s="24" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E47" s="16" t="n">
+      <c r="E47" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I47" s="16" t="n">
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="24" t="n">
         <v>0.05</v>
       </c>
+      <c r="J47" s="27" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="n">
+      <c r="A48" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B48" s="16" t="inlineStr">
+      <c r="B48" s="24" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C48" s="16" t="inlineStr">
+      <c r="C48" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D48" s="16" t="inlineStr">
+      <c r="D48" s="24" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E48" s="16" t="n">
+      <c r="E48" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="16" t="n">
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="24" t="n">
         <v>0.02</v>
       </c>
+      <c r="J48" s="27" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="16" t="n">
+      <c r="A49" s="24" t="n">
         <v>33</v>
       </c>
-      <c r="B49" s="16" t="inlineStr">
+      <c r="B49" s="24" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C49" s="16" t="inlineStr">
+      <c r="C49" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D49" s="16" t="inlineStr">
+      <c r="D49" s="24" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E49" s="16" t="n">
+      <c r="E49" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I49" s="16" t="n">
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="24" t="n">
         <v>0.05</v>
       </c>
+      <c r="J49" s="27" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="n">
+      <c r="A50" s="24" t="n">
         <v>34</v>
       </c>
-      <c r="B50" s="16" t="inlineStr">
+      <c r="B50" s="24" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C50" s="16" t="inlineStr">
+      <c r="C50" s="24" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D50" s="16" t="inlineStr">
+      <c r="D50" s="24" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E50" s="16" t="n">
+      <c r="E50" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I50" s="16" t="n">
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="24" t="n">
         <v>0.05</v>
       </c>
+      <c r="J50" s="27" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="16" t="n">
+      <c r="A51" s="24" t="n">
         <v>35</v>
       </c>
-      <c r="B51" s="16" t="inlineStr">
+      <c r="B51" s="24" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C51" s="16" t="inlineStr">
+      <c r="C51" s="24" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D51" s="16" t="inlineStr">
+      <c r="D51" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E51" s="16" t="n">
+      <c r="E51" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I51" s="16" t="n">
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="24" t="n">
         <v>0.1</v>
       </c>
+      <c r="J51" s="27" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="16" t="n">
+      <c r="A52" s="24" t="n">
         <v>36</v>
       </c>
-      <c r="B52" s="16" t="inlineStr">
+      <c r="B52" s="24" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C52" s="16" t="inlineStr">
+      <c r="C52" s="24" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D52" s="16" t="inlineStr">
+      <c r="D52" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E52" s="16" t="n">
+      <c r="E52" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I52" s="16" t="n">
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="24" t="n">
         <v>0.1</v>
       </c>
+      <c r="J52" s="27" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="16" t="n">
+      <c r="A53" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="B53" s="16" t="inlineStr">
+      <c r="B53" s="24" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C53" s="16" t="inlineStr">
+      <c r="C53" s="24" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D53" s="16" t="inlineStr">
+      <c r="D53" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E53" s="16" t="n">
+      <c r="E53" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="I53" s="16" t="n">
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="24" t="n">
         <v>0.1</v>
       </c>
+      <c r="J53" s="27" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="n">
+      <c r="A54" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="B54" s="16" t="inlineStr">
+      <c r="B54" s="24" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C54" s="16" t="inlineStr">
+      <c r="C54" s="24" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D54" s="16" t="inlineStr">
+      <c r="D54" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E54" s="16" t="n">
+      <c r="E54" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I54" s="16" t="n">
+      <c r="F54" s="27" t="n"/>
+      <c r="G54" s="27" t="n"/>
+      <c r="H54" s="27" t="n"/>
+      <c r="I54" s="24" t="n">
         <v>0.01</v>
       </c>
+      <c r="J54" s="27" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="16" t="n">
+      <c r="A55" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="B55" s="16" t="inlineStr">
+      <c r="B55" s="24" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C55" s="16" t="inlineStr">
+      <c r="C55" s="24" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D55" s="16" t="inlineStr">
+      <c r="D55" s="24" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E55" s="16" t="n">
+      <c r="E55" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="I55" s="16" t="n">
+      <c r="F55" s="26" t="n"/>
+      <c r="G55" s="26" t="n"/>
+      <c r="H55" s="26" t="n"/>
+      <c r="I55" s="24" t="n">
         <v>0.03</v>
       </c>
+      <c r="J55" s="26" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="16" t="n">
+      <c r="A56" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="B56" s="16" t="inlineStr">
+      <c r="B56" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C56" s="16" t="inlineStr">
+      <c r="C56" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D56" s="16" t="inlineStr">
+      <c r="D56" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E56" s="16" t="n">
+      <c r="E56" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F56" s="16" t="n">
+      <c r="F56" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G56" s="16" t="n">
+      <c r="G56" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H56" s="16" t="n">
+      <c r="H56" s="24" t="n">
         <v>7.54</v>
       </c>
-      <c r="I56" s="16" t="n">
+      <c r="I56" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J56" s="16" t="inlineStr">
+      <c r="J56" s="24" t="inlineStr">
         <is>
           <t>F23</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="n">
+      <c r="A57" s="24" t="n">
         <v>41</v>
       </c>
-      <c r="B57" s="16" t="inlineStr">
+      <c r="B57" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C57" s="16" t="inlineStr">
+      <c r="C57" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="D57" s="16" t="inlineStr">
+      <c r="D57" s="24" t="inlineStr">
         <is>
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E57" s="16" t="n">
+      <c r="E57" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F57" s="16" t="n">
+      <c r="F57" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G57" s="16" t="n">
+      <c r="G57" s="24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H57" s="16" t="n">
+      <c r="H57" s="24" t="n">
         <v>7.54</v>
       </c>
-      <c r="I57" s="16" t="n">
+      <c r="I57" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="J57" s="16" t="inlineStr">
+      <c r="J57" s="24" t="inlineStr">
         <is>
           <t>F24</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="16" t="n">
+      <c r="A58" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="B58" s="16" t="inlineStr">
+      <c r="B58" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C58" s="16" t="inlineStr">
+      <c r="C58" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D58" s="16" t="inlineStr">
+      <c r="D58" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E58" s="16" t="n">
+      <c r="E58" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="25" t="n">
         <v>0.04</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58" s="25" t="n">
         <v>11.08</v>
       </c>
-      <c r="I58" s="16" t="n">
+      <c r="I58" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" s="25" t="inlineStr">
         <is>
           <t>F25</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="16" t="n">
+      <c r="A59" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="B59" s="16" t="inlineStr">
+      <c r="B59" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C59" s="16" t="inlineStr">
+      <c r="C59" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D59" s="16" t="inlineStr">
+      <c r="D59" s="24" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I59" s="16" t="n">
+      <c r="F59" s="26" t="n"/>
+      <c r="G59" s="26" t="n"/>
+      <c r="H59" s="26" t="n"/>
+      <c r="I59" s="24" t="n">
         <v>5</v>
       </c>
+      <c r="J59" s="26" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="17" t="inlineStr">
+      <c r="A60" s="28" t="inlineStr">
         <is>
           <t>PACKED IN 168 PACKAGES ONLY.</t>
         </is>
       </c>
-      <c r="B60" s="18" t="n"/>
-      <c r="C60" s="19" t="n"/>
-      <c r="D60" s="19" t="n"/>
-      <c r="E60" s="19" t="n"/>
-      <c r="F60" s="19" t="n"/>
-      <c r="G60" s="19" t="n"/>
-      <c r="H60" s="20" t="n"/>
-      <c r="I60" s="19" t="n"/>
-      <c r="J60" s="21" t="n"/>
+      <c r="B60" s="29" t="n"/>
+      <c r="C60" s="30" t="n"/>
+      <c r="D60" s="30" t="n"/>
+      <c r="E60" s="30" t="n"/>
+      <c r="F60" s="30" t="n"/>
+      <c r="G60" s="30" t="n"/>
+      <c r="H60" s="31" t="n"/>
+      <c r="I60" s="30" t="n"/>
+      <c r="J60" s="32" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="22" t="inlineStr">
+      <c r="A61" s="33" t="inlineStr">
         <is>
           <t>NET WEIGHT: 3156.66  KGS</t>
         </is>
       </c>
-      <c r="B61" s="23" t="n"/>
-      <c r="H61" s="24" t="n"/>
-      <c r="J61" s="25" t="n"/>
+      <c r="B61" s="34" t="n"/>
+      <c r="C61" s="35" t="n"/>
+      <c r="D61" s="35" t="n"/>
+      <c r="E61" s="35" t="n"/>
+      <c r="F61" s="35" t="n"/>
+      <c r="G61" s="35" t="n"/>
+      <c r="H61" s="36" t="n"/>
+      <c r="I61" s="35" t="n"/>
+      <c r="J61" s="37" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="22" t="inlineStr">
+      <c r="A62" s="33" t="inlineStr">
         <is>
           <t>GROSS WEIGHT:  3374.84 KGS</t>
         </is>
       </c>
-      <c r="B62" s="23" t="n"/>
-      <c r="H62" s="24" t="n"/>
-      <c r="J62" s="25" t="n"/>
+      <c r="B62" s="34" t="n"/>
+      <c r="C62" s="35" t="n"/>
+      <c r="D62" s="35" t="n"/>
+      <c r="E62" s="35" t="n"/>
+      <c r="F62" s="35" t="n"/>
+      <c r="G62" s="35" t="n"/>
+      <c r="H62" s="36" t="n"/>
+      <c r="I62" s="35" t="n"/>
+      <c r="J62" s="37" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="22" t="inlineStr">
+      <c r="A63" s="33" t="inlineStr">
         <is>
           <t>TOTAL MEASUREMENT:18.32 CBM</t>
         </is>
       </c>
-      <c r="B63" s="23" t="n"/>
-      <c r="H63" s="24" t="n"/>
-      <c r="J63" s="25" t="n"/>
+      <c r="B63" s="34" t="n"/>
+      <c r="C63" s="35" t="n"/>
+      <c r="D63" s="35" t="n"/>
+      <c r="E63" s="35" t="n"/>
+      <c r="F63" s="35" t="n"/>
+      <c r="G63" s="35" t="n"/>
+      <c r="H63" s="36" t="n"/>
+      <c r="I63" s="35" t="n"/>
+      <c r="J63" s="37" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="26" t="inlineStr">
+      <c r="A64" s="38" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B64" s="27" t="n"/>
-      <c r="C64" s="28" t="n"/>
-      <c r="D64" s="28" t="n"/>
-      <c r="E64" s="28" t="n"/>
-      <c r="F64" s="28" t="n"/>
-      <c r="G64" s="28" t="n"/>
-      <c r="H64" s="29" t="n"/>
-      <c r="I64" s="28" t="n"/>
-      <c r="J64" s="30" t="n"/>
+      <c r="B64" s="39" t="n"/>
+      <c r="C64" s="40" t="n"/>
+      <c r="D64" s="40" t="n"/>
+      <c r="E64" s="40" t="n"/>
+      <c r="F64" s="40" t="n"/>
+      <c r="G64" s="40" t="n"/>
+      <c r="H64" s="41" t="n"/>
+      <c r="I64" s="40" t="n"/>
+      <c r="J64" s="42" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2525,159 +2882,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
-    <col width="26" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
-    <col width="12" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
-    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
-    <col width="9" customWidth="1" style="19" min="12" max="12"/>
-    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
-    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
-    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
-    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
-    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="44" t="n"/>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="44" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="45" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
+      <c r="B2" s="44" t="n"/>
+      <c r="C2" s="44" t="n"/>
+      <c r="D2" s="44" t="n"/>
+      <c r="E2" s="44" t="n"/>
+      <c r="F2" s="44" t="n"/>
+      <c r="G2" s="44" t="n"/>
+      <c r="H2" s="45" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="32" t="n"/>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="32" t="inlineStr">
+      <c r="B4" s="49" t="n"/>
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="n"/>
+      <c r="E4" s="50" t="n"/>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="32" t="inlineStr">
+      <c r="G4" s="49" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="34" t="n"/>
+      <c r="H4" s="51" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="52" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="35" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="36" t="inlineStr">
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="50" t="n"/>
+      <c r="F5" s="54" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G5" s="55" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="38" t="n"/>
+      <c r="H5" s="56" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="40" t="n"/>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="A6" s="57" t="n"/>
+      <c r="B6" s="58" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="59" t="n"/>
+      <c r="E6" s="60" t="n"/>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="42" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="62" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="23" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>C100.C09-004-01-00</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
-      <c r="D8" s="16" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>13.3mm*200m/
 JL62 13.3*200
@@ -2685,351 +3053,360 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="24" t="n">
         <v>3.67969893</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="G8" s="16" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="24" t="n">
         <v>110.3909679</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>C100.010503001</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="24" t="n">
         <v>6.28615235</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="24" t="n">
         <v>37.7169141</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="24" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="16" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="24" t="n">
         <v>53.35563453</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="24" t="inlineStr">
         <is>
           <t>C100.010523005</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>PS载带编带SOIC16 -11x11电子元器件包装封装
 24*16*0.30 
 200米/卷</t>
         </is>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="24" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="16" t="inlineStr">
+      <c r="G11" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="24" t="n">
         <v>71.14084604</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="24" t="inlineStr">
         <is>
           <t>C100.010523004</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="24" t="n">
         <v>24.53132622</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="16" t="inlineStr">
+      <c r="G12" s="24" t="inlineStr">
         <is>
           <t>卷</t>
         </is>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="24" t="n">
         <v>49.06265244</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="24" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="16" t="inlineStr">
+      <c r="G13" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="24" t="n">
         <v>133.80723396</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="24" t="n">
         <v>41</v>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>J100.J01-002-05-00</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="24" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="24" t="n">
         <v>133.80723396</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="D15" s="16" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="24" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="16" t="inlineStr">
+      <c r="G15" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="24" t="n">
         <v>128.23193254</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>J100.J03-002-01-00</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="D16" s="16" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="24" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="16" t="inlineStr">
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="24" t="n">
         <v>128.23193254</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="63" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
+      <c r="B17" s="64" t="n"/>
+      <c r="C17" s="64" t="n"/>
+      <c r="D17" s="64" t="n"/>
+      <c r="E17" s="64" t="n"/>
+      <c r="F17" s="64" t="n"/>
+      <c r="G17" s="64" t="n"/>
+      <c r="H17" s="65" t="n"/>
+      <c r="I17" s="35" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="43" t="inlineStr">
+      <c r="A18" s="66" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B18" s="44" t="n"/>
-      <c r="C18" s="45" t="n"/>
-      <c r="D18" s="45" t="n"/>
-      <c r="E18" s="45" t="n"/>
-      <c r="F18" s="45" t="n"/>
-      <c r="G18" s="45" t="n"/>
-      <c r="H18" s="46" t="n"/>
+      <c r="B18" s="67" t="n"/>
+      <c r="C18" s="68" t="n"/>
+      <c r="D18" s="68" t="n"/>
+      <c r="E18" s="68" t="n"/>
+      <c r="F18" s="68" t="n"/>
+      <c r="G18" s="68" t="n"/>
+      <c r="H18" s="69" t="n"/>
+      <c r="I18" s="35" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="43" t="inlineStr">
+      <c r="A19" s="66" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B19" s="44" t="n"/>
-      <c r="C19" s="45" t="n"/>
-      <c r="D19" s="45" t="n"/>
-      <c r="E19" s="45" t="n"/>
-      <c r="F19" s="45" t="n"/>
-      <c r="G19" s="45" t="n"/>
-      <c r="H19" s="46" t="n"/>
-      <c r="I19" s="47" t="n"/>
+      <c r="B19" s="67" t="n"/>
+      <c r="C19" s="68" t="n"/>
+      <c r="D19" s="68" t="n"/>
+      <c r="E19" s="68" t="n"/>
+      <c r="F19" s="68" t="n"/>
+      <c r="G19" s="68" t="n"/>
+      <c r="H19" s="69" t="n"/>
+      <c r="I19" s="70" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="inlineStr">
+      <c r="A20" s="71" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B20" s="49" t="n"/>
-      <c r="C20" s="45" t="n"/>
-      <c r="D20" s="45" t="n"/>
-      <c r="E20" s="45" t="n"/>
-      <c r="F20" s="45" t="n"/>
-      <c r="G20" s="45" t="n"/>
-      <c r="H20" s="46" t="n"/>
-      <c r="I20" s="33" t="n"/>
+      <c r="B20" s="72" t="n"/>
+      <c r="C20" s="68" t="n"/>
+      <c r="D20" s="68" t="n"/>
+      <c r="E20" s="68" t="n"/>
+      <c r="F20" s="68" t="n"/>
+      <c r="G20" s="68" t="n"/>
+      <c r="H20" s="69" t="n"/>
+      <c r="I20" s="50" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="73" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -3038,6 +3415,14 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
+      <c r="B21" s="58" t="n"/>
+      <c r="C21" s="58" t="n"/>
+      <c r="D21" s="58" t="n"/>
+      <c r="E21" s="58" t="n"/>
+      <c r="F21" s="58" t="n"/>
+      <c r="G21" s="58" t="n"/>
+      <c r="H21" s="74" t="n"/>
+      <c r="I21" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3066,605 +3451,625 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
-    <col width="26" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
-    <col width="12" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
-    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
-    <col width="9" customWidth="1" style="19" min="12" max="12"/>
-    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
-    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
-    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
-    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
-    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="44" t="n"/>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="44" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="45" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
+      <c r="B2" s="44" t="n"/>
+      <c r="C2" s="44" t="n"/>
+      <c r="D2" s="44" t="n"/>
+      <c r="E2" s="44" t="n"/>
+      <c r="F2" s="44" t="n"/>
+      <c r="G2" s="44" t="n"/>
+      <c r="H2" s="45" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="32" t="n"/>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="32" t="inlineStr">
+      <c r="B4" s="49" t="n"/>
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="n"/>
+      <c r="E4" s="50" t="n"/>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="32" t="inlineStr">
+      <c r="G4" s="49" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="34" t="n"/>
+      <c r="H4" s="51" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="52" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="35" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="36" t="inlineStr">
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="50" t="n"/>
+      <c r="F5" s="54" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G5" s="55" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="38" t="n"/>
+      <c r="H5" s="56" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="40" t="n"/>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="A6" s="57" t="n"/>
+      <c r="B6" s="58" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="59" t="n"/>
+      <c r="E6" s="60" t="n"/>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="42" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="62" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="23" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>C100.030911007</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>Connector-XH2,54</t>
         </is>
       </c>
-      <c r="D8" s="16" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="24" t="n">
         <v>0.00278765</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="24" t="n">
         <v>7000</v>
       </c>
-      <c r="G8" s="16" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="24" t="n">
         <v>19.51355</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>C100.030911008</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>Connector-VH3.96</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="24" t="n">
         <v>0.00696913</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="24" t="n">
         <v>3000</v>
       </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="24" t="n">
         <v>20.90739</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>E100.0203133015</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="24" t="n">
         <v>1.10251585</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="16" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="24" t="n">
         <v>5.51257925</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="24" t="inlineStr">
         <is>
           <t>E100.0203104009</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>Fuse holder-plastic</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="24" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G11" s="16" t="inlineStr">
+      <c r="G11" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="24" t="n">
         <v>13.93825355</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="24" t="inlineStr">
         <is>
           <t>E100.0203104007</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="24" t="n">
         <v>9.75677748</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="16" t="inlineStr">
+      <c r="G12" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="24" t="n">
         <v>19.51355496</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="24" t="n">
         <v>33</v>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>E100.0203104017</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>Metal cutters for feeder</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="24" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="inlineStr">
+      <c r="G13" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="24" t="n">
         <v>13.93825355</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="24" t="n">
         <v>34</v>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>E100.0203162160</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="24" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="24" t="n">
         <v>13.93825355</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="24" t="n">
         <v>35</v>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>E100.0203162100</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
-      <c r="D15" s="16" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="16" t="inlineStr">
+      <c r="G15" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="24" t="n">
         <v>2.7876508</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="24" t="n">
         <v>36</v>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>E100.0203162049</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
-      <c r="D16" s="16" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="16" t="inlineStr">
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="24" t="n">
         <v>2.7876508</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>E100.0203162047</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>Screw-LS1D-04026</t>
         </is>
       </c>
-      <c r="D17" s="16" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="16" t="inlineStr">
+      <c r="G17" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="24" t="n">
         <v>2.7876508</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>E100.0203162043</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>Metal block-LS1D-04021</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="24" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="16" t="inlineStr">
+      <c r="G18" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="24" t="n">
         <v>30.38539271</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>E100.020344000</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>Screw -LS1D-07037</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="24" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="G19" s="16" t="inlineStr">
+      <c r="G19" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="24" t="n">
         <v>13.938254</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="63" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
+      <c r="B20" s="64" t="n"/>
+      <c r="C20" s="64" t="n"/>
+      <c r="D20" s="64" t="n"/>
+      <c r="E20" s="64" t="n"/>
+      <c r="F20" s="64" t="n"/>
+      <c r="G20" s="64" t="n"/>
+      <c r="H20" s="65" t="n"/>
+      <c r="I20" s="35" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="inlineStr">
+      <c r="A21" s="66" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B21" s="44" t="n"/>
-      <c r="C21" s="45" t="n"/>
-      <c r="D21" s="45" t="n"/>
-      <c r="E21" s="45" t="n"/>
-      <c r="F21" s="45" t="n"/>
-      <c r="G21" s="45" t="n"/>
-      <c r="H21" s="46" t="n"/>
+      <c r="B21" s="67" t="n"/>
+      <c r="C21" s="68" t="n"/>
+      <c r="D21" s="68" t="n"/>
+      <c r="E21" s="68" t="n"/>
+      <c r="F21" s="68" t="n"/>
+      <c r="G21" s="68" t="n"/>
+      <c r="H21" s="69" t="n"/>
+      <c r="I21" s="35" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="43" t="inlineStr">
+      <c r="A22" s="66" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B22" s="44" t="n"/>
-      <c r="C22" s="45" t="n"/>
-      <c r="D22" s="45" t="n"/>
-      <c r="E22" s="45" t="n"/>
-      <c r="F22" s="45" t="n"/>
-      <c r="G22" s="45" t="n"/>
-      <c r="H22" s="46" t="n"/>
-      <c r="I22" s="47" t="n"/>
+      <c r="B22" s="67" t="n"/>
+      <c r="C22" s="68" t="n"/>
+      <c r="D22" s="68" t="n"/>
+      <c r="E22" s="68" t="n"/>
+      <c r="F22" s="68" t="n"/>
+      <c r="G22" s="68" t="n"/>
+      <c r="H22" s="69" t="n"/>
+      <c r="I22" s="70" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="48" t="inlineStr">
+      <c r="A23" s="71" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B23" s="49" t="n"/>
-      <c r="C23" s="45" t="n"/>
-      <c r="D23" s="45" t="n"/>
-      <c r="E23" s="45" t="n"/>
-      <c r="F23" s="45" t="n"/>
-      <c r="G23" s="45" t="n"/>
-      <c r="H23" s="46" t="n"/>
-      <c r="I23" s="33" t="n"/>
+      <c r="B23" s="72" t="n"/>
+      <c r="C23" s="68" t="n"/>
+      <c r="D23" s="68" t="n"/>
+      <c r="E23" s="68" t="n"/>
+      <c r="F23" s="68" t="n"/>
+      <c r="G23" s="68" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="50" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="73" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -3673,6 +4078,14 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
+      <c r="B24" s="58" t="n"/>
+      <c r="C24" s="58" t="n"/>
+      <c r="D24" s="58" t="n"/>
+      <c r="E24" s="58" t="n"/>
+      <c r="F24" s="58" t="n"/>
+      <c r="G24" s="58" t="n"/>
+      <c r="H24" s="74" t="n"/>
+      <c r="I24" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3701,159 +4114,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
-    <col width="26" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
-    <col width="12" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
-    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
-    <col width="9" customWidth="1" style="19" min="12" max="12"/>
-    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
-    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
-    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
-    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
-    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="44" t="n"/>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="44" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="45" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
+      <c r="B2" s="44" t="n"/>
+      <c r="C2" s="44" t="n"/>
+      <c r="D2" s="44" t="n"/>
+      <c r="E2" s="44" t="n"/>
+      <c r="F2" s="44" t="n"/>
+      <c r="G2" s="44" t="n"/>
+      <c r="H2" s="45" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="32" t="n"/>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="32" t="inlineStr">
+      <c r="B4" s="49" t="n"/>
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="n"/>
+      <c r="E4" s="50" t="n"/>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="32" t="inlineStr">
+      <c r="G4" s="49" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="34" t="n"/>
+      <c r="H4" s="51" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="52" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="35" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="36" t="inlineStr">
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="50" t="n"/>
+      <c r="F5" s="54" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G5" s="55" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="38" t="n"/>
+      <c r="H5" s="56" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="40" t="n"/>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="A6" s="57" t="n"/>
+      <c r="B6" s="58" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="59" t="n"/>
+      <c r="E6" s="60" t="n"/>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="42" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="62" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="23" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>Milling cutter</t>
         </is>
       </c>
-      <c r="D8" s="16" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>Material: Tungsten Carbide Steel
 Mill Type: Standard Up Draft Type
@@ -3865,142 +4289,151 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="G8" s="16" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="24" t="n">
         <v>313.610706</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="24" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>件</t>
         </is>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="24" t="n">
         <v>585.40664856</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>E100.020308001</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="24" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="16" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
         <is>
           <t>件</t>
         </is>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="24" t="n">
         <v>97.56777476000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="63" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
+      <c r="B11" s="64" t="n"/>
+      <c r="C11" s="64" t="n"/>
+      <c r="D11" s="64" t="n"/>
+      <c r="E11" s="64" t="n"/>
+      <c r="F11" s="64" t="n"/>
+      <c r="G11" s="64" t="n"/>
+      <c r="H11" s="65" t="n"/>
+      <c r="I11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="43" t="inlineStr">
+      <c r="A12" s="66" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B12" s="44" t="n"/>
-      <c r="C12" s="45" t="n"/>
-      <c r="D12" s="45" t="n"/>
-      <c r="E12" s="45" t="n"/>
-      <c r="F12" s="45" t="n"/>
-      <c r="G12" s="45" t="n"/>
-      <c r="H12" s="46" t="n"/>
+      <c r="B12" s="67" t="n"/>
+      <c r="C12" s="68" t="n"/>
+      <c r="D12" s="68" t="n"/>
+      <c r="E12" s="68" t="n"/>
+      <c r="F12" s="68" t="n"/>
+      <c r="G12" s="68" t="n"/>
+      <c r="H12" s="69" t="n"/>
+      <c r="I12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="43" t="inlineStr">
+      <c r="A13" s="66" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B13" s="44" t="n"/>
-      <c r="C13" s="45" t="n"/>
-      <c r="D13" s="45" t="n"/>
-      <c r="E13" s="45" t="n"/>
-      <c r="F13" s="45" t="n"/>
-      <c r="G13" s="45" t="n"/>
-      <c r="H13" s="46" t="n"/>
-      <c r="I13" s="47" t="n"/>
+      <c r="B13" s="67" t="n"/>
+      <c r="C13" s="68" t="n"/>
+      <c r="D13" s="68" t="n"/>
+      <c r="E13" s="68" t="n"/>
+      <c r="F13" s="68" t="n"/>
+      <c r="G13" s="68" t="n"/>
+      <c r="H13" s="69" t="n"/>
+      <c r="I13" s="70" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="inlineStr">
+      <c r="A14" s="71" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B14" s="49" t="n"/>
-      <c r="C14" s="45" t="n"/>
-      <c r="D14" s="45" t="n"/>
-      <c r="E14" s="45" t="n"/>
-      <c r="F14" s="45" t="n"/>
-      <c r="G14" s="45" t="n"/>
-      <c r="H14" s="46" t="n"/>
-      <c r="I14" s="33" t="n"/>
+      <c r="B14" s="72" t="n"/>
+      <c r="C14" s="68" t="n"/>
+      <c r="D14" s="68" t="n"/>
+      <c r="E14" s="68" t="n"/>
+      <c r="F14" s="68" t="n"/>
+      <c r="G14" s="68" t="n"/>
+      <c r="H14" s="69" t="n"/>
+      <c r="I14" s="50" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="73" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4009,6 +4442,14 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
+      <c r="B15" s="58" t="n"/>
+      <c r="C15" s="58" t="n"/>
+      <c r="D15" s="58" t="n"/>
+      <c r="E15" s="58" t="n"/>
+      <c r="F15" s="58" t="n"/>
+      <c r="G15" s="58" t="n"/>
+      <c r="H15" s="74" t="n"/>
+      <c r="I15" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4037,847 +4478,867 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
-    <col width="26" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="6" max="6"/>
-    <col width="12" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.6636363636364" customWidth="1" style="18" min="9" max="9"/>
-    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
-    <col width="9" customWidth="1" style="19" min="12" max="12"/>
-    <col width="10.6636363636364" customWidth="1" style="19" min="13" max="13"/>
-    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
-    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
-    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
-    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="44" t="n"/>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="44" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="45" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
+      <c r="B2" s="44" t="n"/>
+      <c r="C2" s="44" t="n"/>
+      <c r="D2" s="44" t="n"/>
+      <c r="E2" s="44" t="n"/>
+      <c r="F2" s="44" t="n"/>
+      <c r="G2" s="44" t="n"/>
+      <c r="H2" s="45" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="32" t="n"/>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="32" t="inlineStr">
+      <c r="B4" s="49" t="n"/>
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="n"/>
+      <c r="E4" s="50" t="n"/>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">CI No.: </t>
         </is>
       </c>
-      <c r="G4" s="32" t="inlineStr">
+      <c r="G4" s="49" t="inlineStr">
         <is>
           <t>CXCI2025012201</t>
         </is>
       </c>
-      <c r="H4" s="34" t="n"/>
+      <c r="H4" s="51" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="52" t="inlineStr">
         <is>
           <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
         </is>
       </c>
-      <c r="D5" s="35" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="36" t="inlineStr">
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="50" t="n"/>
+      <c r="F5" s="54" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G5" s="55" t="n">
         <v>45679</v>
       </c>
-      <c r="H5" s="38" t="n"/>
+      <c r="H5" s="56" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="40" t="n"/>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="A6" s="57" t="n"/>
+      <c r="B6" s="58" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="59" t="n"/>
+      <c r="E6" s="60" t="n"/>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>PO No.:</t>
         </is>
       </c>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="42" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="62" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Material code</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Model NO.</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="23" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="23" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-05-01</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
-      <c r="D8" s="16" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-K
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="G8" s="16" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="24" t="n">
         <v>324.0643962</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>1.符合白光牌烙铁手柄使用；
 2. 900M-T-B
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="24" t="n">
         <v>348.45634</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="24" t="n">
         <v>546</v>
       </c>
-      <c r="G10" s="16" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="24" t="n">
         <v>380.51432328</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="G11" s="16" t="inlineStr">
+      <c r="G11" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="24" t="n">
         <v>27.8765072</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="24" t="inlineStr">
         <is>
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="24" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="24" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="G12" s="16" t="inlineStr">
+      <c r="G12" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="24" t="n">
         <v>27.8765072</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="24" t="inlineStr">
         <is>
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="24" t="n">
         <v>0.13798871</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="24" t="n">
         <v>250</v>
       </c>
-      <c r="G13" s="16" t="inlineStr">
+      <c r="G13" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="24" t="n">
         <v>34.4971775</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>C100.C06-019-05-00</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="24" t="inlineStr">
         <is>
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="24" t="n">
         <v>4.10063419</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="24" t="inlineStr">
         <is>
           <t>包</t>
         </is>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="24" t="n">
         <v>410.063419</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="D15" s="16" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="G15" s="16" t="inlineStr">
+      <c r="G15" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="24" t="n">
         <v>73.59398</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
-      <c r="D16" s="16" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="24" t="n">
         <v>395</v>
       </c>
-      <c r="G16" s="16" t="inlineStr">
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="24" t="n">
         <v>72.67405524999999</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
-      <c r="D17" s="16" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="G17" s="16" t="inlineStr">
+      <c r="G17" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="24" t="n">
         <v>73.59398</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr">
+      <c r="D18" s="24" t="inlineStr">
         <is>
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="16" t="inlineStr">
+      <c r="G18" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="24" t="n">
         <v>36.79699</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr">
+      <c r="D19" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="G19" s="16" t="inlineStr">
+      <c r="G19" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="24" t="n">
         <v>16.5586455</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C20" s="16" t="inlineStr">
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
-      <c r="D20" s="16" t="inlineStr">
+      <c r="D20" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="G20" s="16" t="inlineStr">
+      <c r="G20" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H20" s="24" t="n">
         <v>11.039097</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C21" s="16" t="inlineStr">
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G21" s="16" t="inlineStr">
+      <c r="G21" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="24" t="n">
         <v>9.1992475</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B22" s="16" t="inlineStr">
+      <c r="B22" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C22" s="16" t="inlineStr">
+      <c r="C22" s="24" t="inlineStr">
         <is>
           <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="D22" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="16" t="inlineStr">
+      <c r="G22" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="24" t="n">
         <v>9.1992475</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B23" s="16" t="inlineStr">
+      <c r="B23" s="24" t="inlineStr">
         <is>
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C23" s="16" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="D23" s="24" t="inlineStr">
         <is>
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="24" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="G23" s="16" t="inlineStr">
+      <c r="G23" s="24" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H23" s="24" t="n">
         <v>20.2383445</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B24" s="16" t="inlineStr">
+      <c r="B24" s="24" t="inlineStr">
         <is>
           <t>E100.019100006</t>
         </is>
       </c>
-      <c r="C24" s="16" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="D24" s="16" t="inlineStr">
+      <c r="D24" s="24" t="inlineStr">
         <is>
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="24" t="n">
         <v>153.79468953</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="16" t="inlineStr">
+      <c r="G24" s="24" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="24" t="n">
         <v>461.38406859</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B25" s="16" t="inlineStr">
+      <c r="B25" s="24" t="inlineStr">
         <is>
           <t>E100.019100007</t>
         </is>
       </c>
-      <c r="C25" s="16" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="D25" s="16" t="inlineStr">
+      <c r="D25" s="24" t="inlineStr">
         <is>
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="24" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="16" t="inlineStr">
+      <c r="G25" s="24" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H25" s="16" t="n">
+      <c r="H25" s="24" t="n">
         <v>203.47062513</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B26" s="16" t="inlineStr">
+      <c r="B26" s="24" t="inlineStr">
         <is>
           <t>E100.019100008</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="24" t="inlineStr">
         <is>
           <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="D26" s="16" t="inlineStr">
+      <c r="D26" s="24" t="inlineStr">
         <is>
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="24" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="F26" s="16" t="n">
+      <c r="F26" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="16" t="inlineStr">
+      <c r="G26" s="24" t="inlineStr">
         <is>
           <t>条</t>
         </is>
       </c>
-      <c r="H26" s="16" t="n">
+      <c r="H26" s="24" t="n">
         <v>123.06084048</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="63" t="inlineStr">
         <is>
           <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
         </is>
       </c>
+      <c r="B27" s="64" t="n"/>
+      <c r="C27" s="64" t="n"/>
+      <c r="D27" s="64" t="n"/>
+      <c r="E27" s="64" t="n"/>
+      <c r="F27" s="64" t="n"/>
+      <c r="G27" s="64" t="n"/>
+      <c r="H27" s="65" t="n"/>
+      <c r="I27" s="35" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="43" t="inlineStr">
+      <c r="A28" s="66" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN: CHINA</t>
         </is>
       </c>
-      <c r="B28" s="44" t="n"/>
-      <c r="C28" s="45" t="n"/>
-      <c r="D28" s="45" t="n"/>
-      <c r="E28" s="45" t="n"/>
-      <c r="F28" s="45" t="n"/>
-      <c r="G28" s="45" t="n"/>
-      <c r="H28" s="46" t="n"/>
+      <c r="B28" s="67" t="n"/>
+      <c r="C28" s="68" t="n"/>
+      <c r="D28" s="68" t="n"/>
+      <c r="E28" s="68" t="n"/>
+      <c r="F28" s="68" t="n"/>
+      <c r="G28" s="68" t="n"/>
+      <c r="H28" s="69" t="n"/>
+      <c r="I28" s="35" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="43" t="inlineStr">
+      <c r="A29" s="66" t="inlineStr">
         <is>
           <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
         </is>
       </c>
-      <c r="B29" s="44" t="n"/>
-      <c r="C29" s="45" t="n"/>
-      <c r="D29" s="45" t="n"/>
-      <c r="E29" s="45" t="n"/>
-      <c r="F29" s="45" t="n"/>
-      <c r="G29" s="45" t="n"/>
-      <c r="H29" s="46" t="n"/>
-      <c r="I29" s="47" t="n"/>
+      <c r="B29" s="67" t="n"/>
+      <c r="C29" s="68" t="n"/>
+      <c r="D29" s="68" t="n"/>
+      <c r="E29" s="68" t="n"/>
+      <c r="F29" s="68" t="n"/>
+      <c r="G29" s="68" t="n"/>
+      <c r="H29" s="69" t="n"/>
+      <c r="I29" s="70" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="48" t="inlineStr">
+      <c r="A30" s="71" t="inlineStr">
         <is>
           <t>Delivery Term:CIF</t>
         </is>
       </c>
-      <c r="B30" s="49" t="n"/>
-      <c r="C30" s="45" t="n"/>
-      <c r="D30" s="45" t="n"/>
-      <c r="E30" s="45" t="n"/>
-      <c r="F30" s="45" t="n"/>
-      <c r="G30" s="45" t="n"/>
-      <c r="H30" s="46" t="n"/>
-      <c r="I30" s="33" t="n"/>
+      <c r="B30" s="72" t="n"/>
+      <c r="C30" s="68" t="n"/>
+      <c r="D30" s="68" t="n"/>
+      <c r="E30" s="68" t="n"/>
+      <c r="F30" s="68" t="n"/>
+      <c r="G30" s="68" t="n"/>
+      <c r="H30" s="69" t="n"/>
+      <c r="I30" s="50" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="73" t="inlineStr">
         <is>
           <t>Company Name：Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
 Account number：8110301012800584376
@@ -4886,6 +5347,14 @@
 SWIFT No.: CIBKCNBJ518</t>
         </is>
       </c>
+      <c r="B31" s="58" t="n"/>
+      <c r="C31" s="58" t="n"/>
+      <c r="D31" s="58" t="n"/>
+      <c r="E31" s="58" t="n"/>
+      <c r="F31" s="58" t="n"/>
+      <c r="G31" s="58" t="n"/>
+      <c r="H31" s="74" t="n"/>
+      <c r="I31" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H8" s="24" t="n">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H9" s="24" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H10" s="24" t="n">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="G11" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H11" s="24" t="n">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G12" s="24" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H12" s="24" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="G13" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="24" t="n">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="G14" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H14" s="24" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="G15" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H15" s="24" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="G16" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H16" s="24" t="n">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H8" s="24" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H9" s="24" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="24" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="G11" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" s="24" t="n">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="G12" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H12" s="24" t="n">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="G13" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="24" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="G14" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H14" s="24" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="G15" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H15" s="24" t="n">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="G16" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H16" s="24" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="G17" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H17" s="24" t="n">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="G18" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H18" s="24" t="n">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="G19" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H19" s="24" t="n">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H8" s="24" t="n">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H9" s="24" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="24" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="G8" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H8" s="24" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="G9" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H9" s="24" t="n">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G10" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="24" t="n">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G11" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" s="24" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="G12" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H12" s="24" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G13" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="24" t="n">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G14" s="24" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="H14" s="24" t="n">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="G15" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H15" s="24" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G16" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H16" s="24" t="n">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="G17" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H17" s="24" t="n">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="G18" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H18" s="24" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G19" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H19" s="24" t="n">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G20" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H20" s="24" t="n">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="G21" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H21" s="24" t="n">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G22" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H22" s="24" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G23" s="24" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H23" s="24" t="n">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="24" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H24" s="24" t="n">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G25" s="24" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H25" s="24" t="n">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="G26" s="24" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H26" s="24" t="n">

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="大华_Silvassa_CI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="麦格米特_Silvassa_CI" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="工厂_Silvassa_CI" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="工厂_Daman_CI" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="大华_Silvassa_CI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麦格米特_Silvassa_CI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Silvassa_CI" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Daman_CI" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_SMT工厂设备配件_CI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_SMT工厂月度辅耗材_CI" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_组装厂月度辅耗材_CI" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_TP-LINK_CI" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_麦格米特_CI" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麦格米特_麦格米特_CI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_SMT工厂设备配件_CI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_SMT工厂月度辅耗材_CI" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_组装厂月度辅耗材_CI" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_TP-LINK_CI" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2074,6 +2074,180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Material code</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Model NO.</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>E100.0111901002</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>E100.0111901002</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>161.704</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>套</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>485.112</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>J100.031003005</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>J100.031003005</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>181.22</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>2174.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>E100.021335001</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>E100.021335001</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>套</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>376.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2956,7 +3130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3164,7 +3338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3773,180 +3947,6 @@
       </c>
       <c r="H17" s="3" t="n">
         <v>20.24088</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>NO.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Material code</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Model NO.</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Unit Price</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>E100.020349014</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>E100.020349014</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>AT-TSSOP20-CMS</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>80.852</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>161.704</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-003-01-00</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-003-01-00</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>473.96</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>4739.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-004-01-00</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-004-01-00</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>717.91</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>7179.1</v>
       </c>
     </row>
   </sheetData>
@@ -4023,50 +4023,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
+        <v>80.852</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>161.704</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>套</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>485.112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -4075,10 +4075,10 @@
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>181.22</v>
+        <v>473.96</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
@@ -4086,21 +4086,21 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>2174.64</v>
+        <v>4739.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -4109,18 +4109,18 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>41.82</v>
+        <v>717.91</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>376.38</v>
+        <v>7179.1</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,11 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麦格米特_麦格米特_CI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_SMT工厂设备配件_CI" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_SMT工厂月度辅耗材_CI" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_组装厂月度辅耗材_CI" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_TP-LINK_CI" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麦格米特_Silvass_CI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Silvass_CI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Daman_CI" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -551,11 +549,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -565,427 +563,437 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.04</v>
+      <c r="G2" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>2.8</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>F02</t>
+        <v>2.6</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>F01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2.04</v>
+      </c>
       <c r="I3" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="5" t="n"/>
+        <v>1.1</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
       <c r="I4" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="6" t="n"/>
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
       <c r="I5" s="3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>F03</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>QLDZ.0014</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.3</v>
+      <c r="G6" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1.88</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>F04</t>
+        <v>1.55</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>F03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>N510059196AA</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="n"/>
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>4.3</v>
+      </c>
       <c r="I7" s="3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J7" s="6" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>FA2P5N1W20360133</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>14</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>F05</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="J8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>STM86118S</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>14</v>
+      </c>
       <c r="I9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>F05</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>STM8680</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
       <c r="I10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="6" t="n"/>
+      <c r="J10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
+      <c r="J11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>900M-T-sk</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>7.55</v>
+      <c r="H12" s="3" t="n">
+        <v>1.44</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>F07</t>
+        <v>1.23</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>F06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>900M-T-B</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>7.55</v>
+      </c>
       <c r="I13" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" s="5" t="n"/>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
       <c r="I14" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
       <c r="I15" s="3" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -1001,63 +1009,63 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>WRNT-013</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="5" t="n"/>
       <c r="I17" s="3" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
+        <v>140</v>
+      </c>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n"/>
       <c r="I18" s="3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J18" s="6" t="n"/>
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -1067,33 +1075,23 @@
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>20</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="n"/>
       <c r="I19" s="3" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>F08</t>
-        </is>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="J19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1103,23 +1101,33 @@
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>457</v>
-      </c>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+        <v>388</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="I20" s="3" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J20" s="5" t="n"/>
+        <v>3.49</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>F08</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -1129,23 +1137,23 @@
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F21" s="5" t="n"/>
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
       <c r="I21" s="3" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="J21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -1155,23 +1163,23 @@
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
       <c r="H22" s="5" t="n"/>
       <c r="I22" s="3" t="n">
-        <v>2.58</v>
+        <v>4.12</v>
       </c>
       <c r="J22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -1181,23 +1189,23 @@
         </is>
       </c>
       <c r="E23" s="3" t="n">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="F23" s="5" t="n"/>
       <c r="G23" s="5" t="n"/>
       <c r="H23" s="5" t="n"/>
       <c r="I23" s="3" t="n">
-        <v>0.36</v>
+        <v>2.58</v>
       </c>
       <c r="J23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -1207,23 +1215,23 @@
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F24" s="5" t="n"/>
       <c r="G24" s="5" t="n"/>
       <c r="H24" s="5" t="n"/>
       <c r="I24" s="3" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="J24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -1233,23 +1241,23 @@
         </is>
       </c>
       <c r="E25" s="3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F25" s="5" t="n"/>
       <c r="G25" s="5" t="n"/>
       <c r="H25" s="5" t="n"/>
       <c r="I25" s="3" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="J25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -1271,11 +1279,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -1285,23 +1293,23 @@
         </is>
       </c>
       <c r="E27" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-      <c r="H27" s="6" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="5" t="n"/>
       <c r="I27" s="3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J27" s="6" t="n"/>
+        <v>0.45</v>
+      </c>
+      <c r="J27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -1311,33 +1319,23 @@
         </is>
       </c>
       <c r="E28" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>68</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>17.71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
       <c r="I28" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>F09-F76</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="J28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
@@ -1347,131 +1345,131 @@
         </is>
       </c>
       <c r="E29" s="3" t="n">
-        <v>2800</v>
+        <v>2040</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>3.92</v>
+        <v>6.12</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>15.5</v>
+        <v>17.71</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>866</v>
+        <v>1200</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>F77-F132</t>
+          <t>F09-F76</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>AT-TSSOP20-CMS</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
+        <v>2800</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>15.5</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>F133</t>
+        <v>866</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>F77-F132</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6" t="n"/>
-      <c r="G31" s="6" t="n"/>
-      <c r="H31" s="6" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="I31" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J31" s="6" t="n"/>
+        <v>0.3</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>F133</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E32" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>34.24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
       <c r="I32" s="3" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>F134</t>
-        </is>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="J32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -1481,33 +1479,33 @@
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>34.91</v>
+        <v>34.24</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>34</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>F137</t>
+          <t>F134</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -1517,33 +1515,33 @@
         </is>
       </c>
       <c r="E34" s="3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>10.63</v>
+        <v>34.91</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>F138</t>
+          <t>F137</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -1553,33 +1551,33 @@
         </is>
       </c>
       <c r="E35" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>37</v>
+        <v>10.63</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>F146-F155</t>
+          <t>F138</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -1595,177 +1593,187 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>F156-F165</t>
+          <t>F146-F155</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>AEVF4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>0.02</v>
+        <v>4.3</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>15.16</v>
+        <v>54</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>F166</t>
+          <t>F156-F165</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E38" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>5</v>
+      <c r="H38" s="3" t="n">
+        <v>15.16</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>F167</t>
+        <v>15</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>F166</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>TG-205A-FU</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H39" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
       <c r="I39" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J39" s="5" t="n"/>
+        <v>0.09</v>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>F167</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>LS1D-01033</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E40" s="3" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F40" s="5" t="n"/>
       <c r="G40" s="5" t="n"/>
       <c r="H40" s="5" t="n"/>
       <c r="I40" s="3" t="n">
-        <v>4.5</v>
+        <v>0.04</v>
       </c>
       <c r="J40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="F41" s="5" t="n"/>
       <c r="G41" s="5" t="n"/>
       <c r="H41" s="5" t="n"/>
       <c r="I41" s="3" t="n">
-        <v>0.04</v>
+        <v>4.5</v>
       </c>
       <c r="J41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -1775,7 +1783,7 @@
         </is>
       </c>
       <c r="E42" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="5" t="n"/>
       <c r="G42" s="5" t="n"/>
@@ -1787,63 +1795,63 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E43" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" s="5" t="n"/>
       <c r="G43" s="5" t="n"/>
       <c r="H43" s="5" t="n"/>
       <c r="I43" s="3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J43" s="5" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E44" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" s="5" t="n"/>
       <c r="G44" s="5" t="n"/>
       <c r="H44" s="5" t="n"/>
       <c r="I44" s="3" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -1865,11 +1873,11 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -1879,23 +1887,23 @@
         </is>
       </c>
       <c r="E46" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F46" s="5" t="n"/>
       <c r="G46" s="5" t="n"/>
       <c r="H46" s="5" t="n"/>
       <c r="I46" s="3" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="J46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -1917,11 +1925,11 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -1943,11 +1951,11 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -1959,21 +1967,21 @@
       <c r="E49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F49" s="6" t="n"/>
-      <c r="G49" s="6" t="n"/>
-      <c r="H49" s="6" t="n"/>
+      <c r="F49" s="5" t="n"/>
+      <c r="G49" s="5" t="n"/>
+      <c r="H49" s="5" t="n"/>
       <c r="I49" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J49" s="6" t="n"/>
+      <c r="J49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -1985,31 +1993,21 @@
       <c r="E50" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H50" s="4" t="n">
-        <v>9</v>
-      </c>
+      <c r="F50" s="6" t="n"/>
+      <c r="G50" s="6" t="n"/>
+      <c r="H50" s="6" t="n"/>
       <c r="I50" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
-        <is>
-          <t>F168</t>
-        </is>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="J50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -2021,48 +2019,84 @@
       <c r="E51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="6" t="n"/>
-      <c r="G51" s="6" t="n"/>
-      <c r="H51" s="6" t="n"/>
+      <c r="F51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>9</v>
+      </c>
       <c r="I51" s="3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>F168</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr"/>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="6" t="n"/>
+      <c r="G52" s="6" t="n"/>
+      <c r="H52" s="6" t="n"/>
+      <c r="I52" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J51" s="6" t="n"/>
+      <c r="J52" s="6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="H38:H49"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J38:J49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H19:H27"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="G38:G49"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J20:J28"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F39:F50"/>
+    <mergeCell ref="J39:J50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G39:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H39:H50"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F20:F28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2248,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2311,16 +2345,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -2329,10 +2363,10 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>15.334</v>
+        <v>0.697</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -2340,67 +2374,67 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>46.002</v>
+        <v>348.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>15.334</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>E100.020310014</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>E100.020310014</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>10.8732</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>2</v>
-      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>21.7464</v>
+        <v>46.002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
         <v>10.8732</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
@@ -2408,33 +2442,33 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>10.8732</v>
+        <v>21.7464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>15.334</v>
+        <v>10.8732</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
@@ -2442,33 +2476,33 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>46.002</v>
+        <v>10.8732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>QLDZ.0014</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>3.15044</v>
+        <v>15.334</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
@@ -2476,33 +2510,33 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315.044</v>
+        <v>46.002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>FA2P5N1W20360133</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>158.916</v>
+        <v>3.15044</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
@@ -2510,33 +2544,33 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>158.916</v>
+        <v>315.044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>STM86118S</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>32.062</v>
+        <v>0.11152</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
@@ -2544,33 +2578,33 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>32.062</v>
+        <v>15.27824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>STM8680</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>25.789</v>
+        <v>158.916</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
@@ -2578,33 +2612,33 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>77.367</v>
+        <v>158.916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>11.152</v>
+        <v>32.062</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
@@ -2612,33 +2646,33 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>55.76</v>
+        <v>32.062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>AEVF4</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>130.339</v>
+        <v>25.789</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
@@ -2646,33 +2680,33 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>130.339</v>
+        <v>77.367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v>3.0668</v>
+        <v>0.697</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
@@ -2680,101 +2714,101 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>30.668</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>TG-205A-FU</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>48.79</v>
+        <v>2.06312</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>5</v>
+        <v>2040</v>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>243.95</v>
+        <v>4208.7648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>LS1D-01033</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1.1152</v>
+        <v>1.01762</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>557.6</v>
+        <v>2849.336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>15.334</v>
+        <v>80.852</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
@@ -2782,30 +2816,30 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>61.336</v>
+        <v>161.704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
-        <v>25.99113</v>
+        <v>11.152</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>5</v>
@@ -2816,33 +2850,33 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>129.95565</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>690.03</v>
+        <v>130.339</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
@@ -2850,21 +2884,21 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>1380.06</v>
+        <v>130.339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -2873,7 +2907,7 @@
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.9061</v>
+        <v>3.0668</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>10</v>
@@ -2884,33 +2918,33 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>9.061</v>
+        <v>30.668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.9061</v>
+        <v>48.79</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
@@ -2918,33 +2952,33 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>9.061</v>
+        <v>243.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>30.668</v>
+        <v>1.1152</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
@@ -2952,21 +2986,21 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>61.336</v>
+        <v>557.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -2975,10 +3009,10 @@
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>30.668</v>
+        <v>15.334</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
@@ -2991,16 +3025,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -3009,10 +3043,10 @@
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>30.668</v>
+        <v>25.99113</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
@@ -3020,30 +3054,30 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>61.336</v>
+        <v>129.95565</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E23" s="3" t="n">
-        <v>30.668</v>
+        <v>690.03</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>2</v>
@@ -3054,21 +3088,21 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>61.336</v>
+        <v>1380.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -3077,10 +3111,10 @@
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>45.7232</v>
+        <v>0.9061</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
@@ -3088,40 +3122,244 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>91.4464</v>
+        <v>9.061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.9061</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>9.061</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>61.336</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>61.336</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>61.336</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>61.336</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>45.7232</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>91.4464</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>E100.020396056</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>E100.020396056</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n">
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>45.7232</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
         <v>91.4464</v>
       </c>
     </row>
@@ -3136,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3199,214 +3437,6 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>J100.020715018</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>J100.020715018</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N510059196AA</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.11152</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>15.27824</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-10-00</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-10-00</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>900M-T-sk</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.697</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>20.91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-006-01-00</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-006-01-00</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>2.06312</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>4208.7648</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-006-02-00</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-006-02-00</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1.01762</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>2849.336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>NO.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Material code</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Model NO.</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Unit Price</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -3949,177 +3979,71 @@
         <v>20.24088</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>NO.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Material code</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Model NO.</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Unit Price</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>E100.020349014</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>E100.020349014</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>AT-TSSOP20-CMS</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>80.852</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>161.704</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="18">
+      <c r="A18" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>E100.E17-003-01-00</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>E100.E17-003-01-00</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>473.96</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F18" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H18" s="3" t="n">
         <v>4739.6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="19">
+      <c r="A19" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>E100.E17-004-01-00</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>E100.E17-004-01-00</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>717.91</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F19" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H19" s="3" t="n">
         <v>7179.1</v>
       </c>
     </row>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麦格米特_Silvass_CI" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Silvass_CI" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Daman_CI" sheetId="4" state="visible" r:id="rId4"/>
@@ -52,7 +52,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,32 +66,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -100,15 +79,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -601,19 +571,19 @@
       <c r="E3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <v>2.04</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>1.1</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>F02</t>
         </is>
@@ -637,13 +607,15 @@
       <c r="E4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I4" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="5" t="n"/>
+      <c r="J4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -663,13 +635,15 @@
       <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" s="6" t="n"/>
+      <c r="J5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -725,19 +699,19 @@
       <c r="E7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <v>4.3</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>F04</t>
         </is>
@@ -761,13 +735,15 @@
       <c r="E8" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="3" t="n">
         <v>2.1</v>
       </c>
-      <c r="J8" s="6" t="n"/>
+      <c r="J8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -787,19 +763,19 @@
       <c r="E9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <v>14</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>F05</t>
         </is>
@@ -823,13 +799,15 @@
       <c r="E10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="5" t="n"/>
+      <c r="J10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -849,13 +827,15 @@
       <c r="E11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="6" t="n"/>
+      <c r="J11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -911,19 +891,19 @@
       <c r="E13" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="3" t="n">
         <v>7.55</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
@@ -947,13 +927,15 @@
       <c r="E14" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="J14" s="5" t="n"/>
+      <c r="J14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -973,13 +955,15 @@
       <c r="E15" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="n"/>
+      <c r="J15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -999,13 +983,15 @@
       <c r="E16" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J16" s="5" t="n"/>
+      <c r="J16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1025,13 +1011,15 @@
       <c r="E17" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J17" s="5" t="n"/>
+      <c r="J17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1051,13 +1039,15 @@
       <c r="E18" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="J18" s="5" t="n"/>
+      <c r="J18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1077,13 +1067,15 @@
       <c r="E19" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="F19" s="6" t="n"/>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="6" t="n"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" s="3" t="n">
         <v>1.25</v>
       </c>
-      <c r="J19" s="6" t="n"/>
+      <c r="J19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1103,19 +1095,19 @@
       <c r="E20" s="3" t="n">
         <v>388</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <v>20</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>3.49</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>F08</t>
         </is>
@@ -1139,13 +1131,15 @@
       <c r="E21" s="3" t="n">
         <v>457</v>
       </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" s="3" t="n">
         <v>4.11</v>
       </c>
-      <c r="J21" s="5" t="n"/>
+      <c r="J21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1165,13 +1159,15 @@
       <c r="E22" s="3" t="n">
         <v>458</v>
       </c>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="3" t="n">
         <v>4.12</v>
       </c>
-      <c r="J22" s="5" t="n"/>
+      <c r="J22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1191,13 +1187,15 @@
       <c r="E23" s="3" t="n">
         <v>287</v>
       </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I23" s="3" t="n">
         <v>2.58</v>
       </c>
-      <c r="J23" s="5" t="n"/>
+      <c r="J23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1217,13 +1215,15 @@
       <c r="E24" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I24" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="J24" s="5" t="n"/>
+      <c r="J24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1243,13 +1243,15 @@
       <c r="E25" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="J25" s="5" t="n"/>
+      <c r="J25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1269,13 +1271,15 @@
       <c r="E26" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="J26" s="5" t="n"/>
+      <c r="J26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1295,13 +1299,15 @@
       <c r="E27" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="J27" s="5" t="n"/>
+      <c r="J27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -1321,13 +1327,15 @@
       <c r="E28" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
-      <c r="H28" s="6" t="n"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I28" s="3" t="n">
         <v>0.99</v>
       </c>
-      <c r="J28" s="6" t="n"/>
+      <c r="J28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -1419,19 +1427,19 @@
       <c r="E31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>F133</t>
         </is>
@@ -1455,13 +1463,15 @@
       <c r="E32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="6" t="n"/>
-      <c r="G32" s="6" t="n"/>
-      <c r="H32" s="6" t="n"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J32" s="6" t="n"/>
+      <c r="J32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -1697,19 +1707,19 @@
       <c r="E39" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I39" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>F167</t>
         </is>
@@ -1733,13 +1743,15 @@
       <c r="E40" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I40" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J40" s="5" t="n"/>
+      <c r="J40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -1759,13 +1771,15 @@
       <c r="E41" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="5" t="n"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" s="3" t="n">
         <v>4.5</v>
       </c>
-      <c r="J41" s="5" t="n"/>
+      <c r="J41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -1785,13 +1799,15 @@
       <c r="E42" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="5" t="n"/>
-      <c r="H42" s="5" t="n"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J42" s="5" t="n"/>
+      <c r="J42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -1811,13 +1827,15 @@
       <c r="E43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="5" t="n"/>
-      <c r="H43" s="5" t="n"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I43" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J43" s="5" t="n"/>
+      <c r="J43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -1837,13 +1855,15 @@
       <c r="E44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="5" t="n"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J44" s="5" t="n"/>
+      <c r="J44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
@@ -1863,13 +1883,15 @@
       <c r="E45" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="5" t="n"/>
-      <c r="H45" s="5" t="n"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="J45" s="5" t="n"/>
+      <c r="J45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -1889,13 +1911,15 @@
       <c r="E46" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="5" t="n"/>
-      <c r="H46" s="5" t="n"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I46" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="J46" s="5" t="n"/>
+      <c r="J46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -1915,13 +1939,15 @@
       <c r="E47" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I47" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J47" s="5" t="n"/>
+      <c r="J47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
@@ -1941,13 +1967,15 @@
       <c r="E48" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="5" t="n"/>
-      <c r="H48" s="5" t="n"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I48" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J48" s="5" t="n"/>
+      <c r="J48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
@@ -1967,13 +1995,15 @@
       <c r="E49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="5" t="n"/>
-      <c r="H49" s="5" t="n"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I49" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J49" s="5" t="n"/>
+      <c r="J49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
@@ -1993,13 +2023,15 @@
       <c r="E50" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="6" t="n"/>
-      <c r="G50" s="6" t="n"/>
-      <c r="H50" s="6" t="n"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I50" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J50" s="6" t="n"/>
+      <c r="J50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
@@ -2019,19 +2051,19 @@
       <c r="E51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="3" t="n">
         <v>9</v>
       </c>
       <c r="I51" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="J51" s="3" t="inlineStr">
         <is>
           <t>F168</t>
         </is>
@@ -2055,49 +2087,17 @@
       <c r="E52" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F52" s="6" t="n"/>
-      <c r="G52" s="6" t="n"/>
-      <c r="H52" s="6" t="n"/>
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr"/>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I52" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J52" s="6" t="n"/>
+      <c r="J52" s="3" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J20:J28"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F39:F50"/>
-    <mergeCell ref="J39:J50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G39:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="H20:H28"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H39:H50"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F20:F28"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="麦格米特_Silvass_CI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Silvass_CI" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工厂_Daman_CI" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504219801" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504219802" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504219803" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -70,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -79,6 +81,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -444,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2097,6 +2101,28 @@
       </c>
       <c r="J52" s="3" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr"/>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="n">
+        <v>9506</v>
+      </c>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="n">
+        <v>288.16</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>2953.559999999999</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2108,7 +2134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2171,16 +2197,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -2188,87 +2214,615 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>161.704</v>
+      <c r="E2" s="4" t="n">
+        <v>48.79</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>套</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>485.112</v>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>243.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>181.22</v>
+          <t>900M-T-B</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.697</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>台</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>2174.64</v>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>348.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>41.82</v>
+          <t>900M-T-4C</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.697</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>套</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>376.38</v>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>900M-T-2C</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>27.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>900-T-1.2D</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.4182</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>16.728</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>C100.C06-007-01-00</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>C100.C06-007-01-00</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>WRNT-013</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.16728</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>23.4192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.138006</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>34.5015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>388</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>71.395104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>457</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>84.091656</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>458</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>84.27566400000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>52.810296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>7.36032</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>11.04048</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.2004</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>9.2004</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.184008</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>20.24088</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>E100.E17-003-01-00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>E100.E17-003-01-00</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>473.96</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>4739.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>E100.E17-004-01-00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>E100.E17-004-01-00</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>717.91</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>7179.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="3" t="n">
+        <v>3295</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr"/>
+      <c r="H20" s="5" t="n">
+        <v>13242.0939</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2362,7 +2916,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>0.697</v>
       </c>
       <c r="F2" s="3" t="n">
@@ -2373,7 +2927,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>348.5</v>
       </c>
     </row>
@@ -2396,7 +2950,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>15.334</v>
       </c>
       <c r="F3" s="3" t="n">
@@ -2407,7 +2961,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="5" t="n">
         <v>46.002</v>
       </c>
     </row>
@@ -2430,7 +2984,7 @@
           <t>12-14</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>10.8732</v>
       </c>
       <c r="F4" s="3" t="n">
@@ -2441,7 +2995,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="5" t="n">
         <v>21.7464</v>
       </c>
     </row>
@@ -2464,7 +3018,7 @@
           <t>8-14</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>10.8732</v>
       </c>
       <c r="F5" s="3" t="n">
@@ -2475,7 +3029,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="5" t="n">
         <v>10.8732</v>
       </c>
     </row>
@@ -2498,7 +3052,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>15.334</v>
       </c>
       <c r="F6" s="3" t="n">
@@ -2509,7 +3063,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="5" t="n">
         <v>46.002</v>
       </c>
     </row>
@@ -2532,7 +3086,7 @@
           <t>QLDZ.0014</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>3.15044</v>
       </c>
       <c r="F7" s="3" t="n">
@@ -2543,7 +3097,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="5" t="n">
         <v>315.044</v>
       </c>
     </row>
@@ -2566,7 +3120,7 @@
           <t>N510059196AA</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.11152</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -2577,7 +3131,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="5" t="n">
         <v>15.27824</v>
       </c>
     </row>
@@ -2600,7 +3154,7 @@
           <t>FA2P5N1W20360133</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>158.916</v>
       </c>
       <c r="F9" s="3" t="n">
@@ -2611,7 +3165,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="5" t="n">
         <v>158.916</v>
       </c>
     </row>
@@ -2634,7 +3188,7 @@
           <t>STM86118S</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>32.062</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -2645,7 +3199,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="5" t="n">
         <v>32.062</v>
       </c>
     </row>
@@ -2668,7 +3222,7 @@
           <t>STM8680</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>25.789</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -2679,7 +3233,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="5" t="n">
         <v>77.367</v>
       </c>
     </row>
@@ -2702,7 +3256,7 @@
           <t>900M-T-sk</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.697</v>
       </c>
       <c r="F12" s="3" t="n">
@@ -2713,7 +3267,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="5" t="n">
         <v>20.91</v>
       </c>
     </row>
@@ -2736,7 +3290,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>2.06312</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -2747,7 +3301,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="5" t="n">
         <v>4208.7648</v>
       </c>
     </row>
@@ -2770,7 +3324,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>1.01762</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -2781,7 +3335,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="5" t="n">
         <v>2849.336</v>
       </c>
     </row>
@@ -2804,7 +3358,7 @@
           <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>80.852</v>
       </c>
       <c r="F15" s="3" t="n">
@@ -2815,7 +3369,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="5" t="n">
         <v>161.704</v>
       </c>
     </row>
@@ -2838,7 +3392,7 @@
           <t>KLV-M913A-A10</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>11.152</v>
       </c>
       <c r="F16" s="3" t="n">
@@ -2849,7 +3403,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="5" t="n">
         <v>55.76</v>
       </c>
     </row>
@@ -2872,7 +3426,7 @@
           <t>AEVF4</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>130.339</v>
       </c>
       <c r="F17" s="3" t="n">
@@ -2883,7 +3437,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="5" t="n">
         <v>130.339</v>
       </c>
     </row>
@@ -2906,7 +3460,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>3.0668</v>
       </c>
       <c r="F18" s="3" t="n">
@@ -2917,7 +3471,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="5" t="n">
         <v>30.668</v>
       </c>
     </row>
@@ -2940,7 +3494,7 @@
           <t>TG-205A-FU</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>48.79</v>
       </c>
       <c r="F19" s="3" t="n">
@@ -2951,7 +3505,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="5" t="n">
         <v>243.95</v>
       </c>
     </row>
@@ -2974,7 +3528,7 @@
           <t>LS1D-01033</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>1.1152</v>
       </c>
       <c r="F20" s="3" t="n">
@@ -2985,7 +3539,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="5" t="n">
         <v>557.6</v>
       </c>
     </row>
@@ -3008,7 +3562,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>15.334</v>
       </c>
       <c r="F21" s="3" t="n">
@@ -3019,7 +3573,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="5" t="n">
         <v>61.336</v>
       </c>
     </row>
@@ -3042,7 +3596,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>25.99113</v>
       </c>
       <c r="F22" s="3" t="n">
@@ -3053,7 +3607,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="5" t="n">
         <v>129.95565</v>
       </c>
     </row>
@@ -3076,7 +3630,7 @@
           <t>KYB-M7027-001</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>690.03</v>
       </c>
       <c r="F23" s="3" t="n">
@@ -3087,7 +3641,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="5" t="n">
         <v>1380.06</v>
       </c>
     </row>
@@ -3110,7 +3664,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>0.9061</v>
       </c>
       <c r="F24" s="3" t="n">
@@ -3121,7 +3675,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="5" t="n">
         <v>9.061</v>
       </c>
     </row>
@@ -3144,7 +3698,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4" t="n">
         <v>0.9061</v>
       </c>
       <c r="F25" s="3" t="n">
@@ -3155,7 +3709,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="5" t="n">
         <v>9.061</v>
       </c>
     </row>
@@ -3178,7 +3732,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4" t="n">
         <v>30.668</v>
       </c>
       <c r="F26" s="3" t="n">
@@ -3189,7 +3743,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="5" t="n">
         <v>61.336</v>
       </c>
     </row>
@@ -3212,7 +3766,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="4" t="n">
         <v>30.668</v>
       </c>
       <c r="F27" s="3" t="n">
@@ -3223,7 +3777,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="5" t="n">
         <v>61.336</v>
       </c>
     </row>
@@ -3246,7 +3800,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="4" t="n">
         <v>30.668</v>
       </c>
       <c r="F28" s="3" t="n">
@@ -3257,7 +3811,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="5" t="n">
         <v>61.336</v>
       </c>
     </row>
@@ -3280,7 +3834,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>30.668</v>
       </c>
       <c r="F29" s="3" t="n">
@@ -3291,7 +3845,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="5" t="n">
         <v>61.336</v>
       </c>
     </row>
@@ -3314,7 +3868,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="4" t="n">
         <v>45.7232</v>
       </c>
       <c r="F30" s="3" t="n">
@@ -3325,7 +3879,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="5" t="n">
         <v>91.4464</v>
       </c>
     </row>
@@ -3348,7 +3902,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="4" t="n">
         <v>45.7232</v>
       </c>
       <c r="F31" s="3" t="n">
@@ -3359,8 +3913,26 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="5" t="n">
         <v>91.4464</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="3" t="n">
+        <v>6187</v>
+      </c>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="5" t="n">
+        <v>11348.53309</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3437,16 +4009,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -3454,597 +4026,105 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>48.79</v>
+      <c r="E2" s="4" t="n">
+        <v>161.704</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>243.95</v>
+          <t>套</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>485.112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>900M-T-B</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.697</v>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>181.22</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>348.5</v>
+          <t>台</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>2174.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.697</v>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>41.82</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>278.8</v>
+          <t>套</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>376.38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
+      <c r="A5" s="3" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>900M-T-2C</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.697</v>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>27.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>900-T-1.2D</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0.4182</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>16.728</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-007-01-00</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-007-01-00</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>WRNT-013</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.16728</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>23.4192</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0.138006</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>34.5015</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>71.395104</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>457</v>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>84.091656</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>458</v>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>84.27566400000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>287</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>52.810296</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>7.36032</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>11.04048</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>9.2004</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>9.2004</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>0.184008</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>20.24088</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-003-01-00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-003-01-00</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>473.96</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>4739.6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-004-01-00</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>E100.E17-004-01-00</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>717.91</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>7179.1</v>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>3036.132</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504219801" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504219802" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504219803" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504225964" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504225965" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504225966" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,20 +530,24 @@
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>铣刀</t>
+        </is>
+      </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.01</v>
+        <v>0.00996</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>2.8</v>
@@ -566,7 +570,11 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>红外发热管</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -602,7 +610,11 @@
           <t>E100.020310014</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
           <t>12-14</t>
@@ -630,7 +642,11 @@
           <t>E100.020310015</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
           <t>8-14</t>
@@ -658,7 +674,11 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>红外发热管</t>
+        </is>
+      </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -694,7 +714,11 @@
           <t>E100.A37-066-02-00</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>重型双柱爪</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
           <t>QLDZ.0014</t>
@@ -730,7 +754,11 @@
           <t>J100.020715018</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>过滤棉</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
           <t>N510059196AA</t>
@@ -758,7 +786,11 @@
           <t>E100.020200009</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>变频器</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
           <t>FA2P5N1W20360133</t>
@@ -794,7 +826,11 @@
           <t>E100.020310017</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
           <t>STM86118S</t>
@@ -822,7 +858,11 @@
           <t>E100.020310012</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
           <t>STM8680</t>
@@ -850,7 +890,11 @@
           <t>E100.A33-013-03-00</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>气密阀</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -886,7 +930,11 @@
           <t>J100.S07-010-10-00</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr"/>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
           <t>900M-T-sk</t>
@@ -922,7 +970,11 @@
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr"/>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
           <t>900M-T-B</t>
@@ -950,7 +1002,11 @@
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
@@ -978,7 +1034,11 @@
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
@@ -1006,7 +1066,11 @@
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
@@ -1034,7 +1098,11 @@
           <t>C100.C06-007-01-00</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>热电偶</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
           <t>WRNT-013</t>
@@ -1062,7 +1130,11 @@
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>焊接海绵</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1090,7 +1162,11 @@
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1126,7 +1202,11 @@
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1154,7 +1234,11 @@
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr"/>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1182,7 +1266,11 @@
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1210,7 +1298,11 @@
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1238,7 +1330,11 @@
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1266,7 +1362,11 @@
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1294,7 +1394,11 @@
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr"/>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1322,7 +1426,11 @@
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1350,7 +1458,11 @@
           <t>C100.C06-006-01-00</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>钢网擦拭纸</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1386,7 +1498,11 @@
           <t>C100.C06-006-02-00</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr"/>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>钢网擦拭纸</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1422,7 +1538,11 @@
           <t>E100.020349014</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>烧录座</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
           <t>AT-TSSOP20-CMS</t>
@@ -1458,7 +1578,11 @@
           <t>E100.A37-154-01-00</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>滑轮</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
           <t>KLV-M913A-A10</t>
@@ -1486,7 +1610,11 @@
           <t>E100.0111901002</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr"/>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>打包架</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1505,7 +1633,7 @@
         <v>34.24</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>66.09999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1522,7 +1650,11 @@
           <t>J100.031003005</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr"/>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>周转车</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1558,7 +1690,11 @@
           <t>E100.021335001</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr"/>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>物料架</t>
+        </is>
+      </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1577,7 +1713,7 @@
         <v>10.63</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0</v>
+        <v>207.46</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -1594,7 +1730,11 @@
           <t>E100.E17-003-01-00</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>屏蔽箱</t>
+        </is>
+      </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1630,7 +1770,11 @@
           <t>E100.E17-004-01-00</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>屏蔽箱</t>
+        </is>
+      </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1666,7 +1810,11 @@
           <t>E100.020396013</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>马达</t>
+        </is>
+      </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
           <t>AEVF4</t>
@@ -1702,7 +1850,11 @@
           <t>E100.0203104001</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr"/>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>太阳片</t>
+        </is>
+      </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1738,7 +1890,11 @@
           <t>E100.0203154000</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
           <t>TG-205A-FU</t>
@@ -1766,7 +1922,11 @@
           <t>E100.0203125000</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr"/>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>链夹</t>
+        </is>
+      </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
           <t>LS1D-01033</t>
@@ -1794,7 +1954,11 @@
           <t>E100.0203162159</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr"/>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>调节座</t>
+        </is>
+      </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1822,7 +1986,11 @@
           <t>E100.0203133001</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>模头</t>
+        </is>
+      </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1850,7 +2018,11 @@
           <t>E100.E00-011-15-01</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>电刷</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
           <t>KYB-M7027-001</t>
@@ -1878,7 +2050,11 @@
           <t>E100.020396061</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr"/>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>密封圈</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1906,7 +2082,11 @@
           <t>E100.020396062</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr"/>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>密封圈</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1934,7 +2114,11 @@
           <t>E100.020396047</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1962,7 +2146,11 @@
           <t>E100.020396048</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1990,7 +2178,11 @@
           <t>E100.020396049</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr"/>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2018,7 +2210,11 @@
           <t>E100.020396050</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr"/>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2046,7 +2242,11 @@
           <t>E100.020396055</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>发热板</t>
+        </is>
+      </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2082,7 +2282,11 @@
           <t>E100.020396056</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>发热板</t>
+        </is>
+      </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2111,7 +2315,7 @@
       </c>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="n">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr"/>
@@ -2119,7 +2323,7 @@
         <v>288.16</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>2953.559999999999</v>
+        <v>3160.94</v>
       </c>
       <c r="J53" s="3" t="inlineStr"/>
     </row>
@@ -2206,7 +2410,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>气密阀</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -2240,7 +2444,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -2274,7 +2478,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -2308,7 +2512,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -2342,7 +2546,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -2376,7 +2580,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>热电偶</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -2410,7 +2614,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>焊接海绵</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -2444,7 +2648,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -2478,7 +2682,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -2512,7 +2716,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -2546,7 +2750,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -2580,7 +2784,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -2614,7 +2818,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -2648,7 +2852,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -2682,7 +2886,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -2716,7 +2920,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -2750,7 +2954,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>屏蔽箱</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -2784,7 +2988,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>屏蔽箱</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -2908,7 +3112,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
+          <t>铣刀</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -2920,7 +3124,7 @@
         <v>0.697</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -2928,7 +3132,7 @@
         </is>
       </c>
       <c r="H2" s="5" t="n">
-        <v>348.5</v>
+        <v>347.106</v>
       </c>
     </row>
     <row r="3">
@@ -2942,7 +3146,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>红外发热管</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -2976,7 +3180,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>联轴器</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -3010,7 +3214,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>联轴器</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -3044,7 +3248,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>红外发热管</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -3078,7 +3282,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>重型双柱爪</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -3112,7 +3316,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>过滤棉</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -3146,7 +3350,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>变频器</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -3180,7 +3384,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -3214,7 +3418,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -3248,7 +3452,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -3282,7 +3486,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>钢网擦拭纸</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -3316,7 +3520,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>钢网擦拭纸</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -3350,7 +3554,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>烧录座</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -3384,7 +3588,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>滑轮</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -3418,7 +3622,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -3452,7 +3656,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>太阳片</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -3486,7 +3690,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -3520,7 +3724,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>链夹</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -3554,7 +3758,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>调节座</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -3588,7 +3792,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>模头</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -3622,7 +3826,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>电刷</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -3656,7 +3860,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>密封圈</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -3690,7 +3894,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>密封圈</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -3724,7 +3928,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -3758,7 +3962,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -3792,7 +3996,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -3826,7 +4030,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -3860,7 +4064,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>发热板</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -3894,7 +4098,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>发热板</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -3928,11 +4132,11 @@
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr"/>
       <c r="F32" s="3" t="n">
-        <v>6187</v>
+        <v>6185</v>
       </c>
       <c r="G32" s="3" t="inlineStr"/>
       <c r="H32" s="5" t="n">
-        <v>11348.53309</v>
+        <v>11347.13909</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +4222,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>打包架</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -4052,7 +4256,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>周转车</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -4086,7 +4290,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>物料架</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504225964" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504225965" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504225966" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226031" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226032" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.00996</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>2.8</v>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="n">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2355,6 +2355,7 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2398,6 +2399,11 @@
           <t>Amount</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Total Net Weight (kg)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -2432,6 +2438,9 @@
       <c r="H2" s="5" t="n">
         <v>243.95</v>
       </c>
+      <c r="I2" s="3" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -2466,6 +2475,9 @@
       <c r="H3" s="5" t="n">
         <v>348.5</v>
       </c>
+      <c r="I3" s="3" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -2500,6 +2512,9 @@
       <c r="H4" s="5" t="n">
         <v>278.8</v>
       </c>
+      <c r="I4" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -2534,6 +2549,9 @@
       <c r="H5" s="5" t="n">
         <v>27.88</v>
       </c>
+      <c r="I5" s="3" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -2568,6 +2586,9 @@
       <c r="H6" s="5" t="n">
         <v>16.728</v>
       </c>
+      <c r="I6" s="3" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -2602,6 +2623,9 @@
       <c r="H7" s="5" t="n">
         <v>23.4192</v>
       </c>
+      <c r="I7" s="3" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -2636,6 +2660,9 @@
       <c r="H8" s="5" t="n">
         <v>34.5015</v>
       </c>
+      <c r="I8" s="3" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -2670,6 +2697,9 @@
       <c r="H9" s="5" t="n">
         <v>71.395104</v>
       </c>
+      <c r="I9" s="3" t="n">
+        <v>3.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -2704,6 +2734,9 @@
       <c r="H10" s="5" t="n">
         <v>84.091656</v>
       </c>
+      <c r="I10" s="3" t="n">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -2738,6 +2771,9 @@
       <c r="H11" s="5" t="n">
         <v>84.27566400000001</v>
       </c>
+      <c r="I11" s="3" t="n">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -2772,6 +2808,9 @@
       <c r="H12" s="5" t="n">
         <v>52.810296</v>
       </c>
+      <c r="I12" s="3" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -2806,6 +2845,9 @@
       <c r="H13" s="5" t="n">
         <v>7.36032</v>
       </c>
+      <c r="I13" s="3" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -2840,6 +2882,9 @@
       <c r="H14" s="5" t="n">
         <v>11.04048</v>
       </c>
+      <c r="I14" s="3" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -2874,6 +2919,9 @@
       <c r="H15" s="5" t="n">
         <v>9.2004</v>
       </c>
+      <c r="I15" s="3" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -2908,6 +2956,9 @@
       <c r="H16" s="5" t="n">
         <v>9.2004</v>
       </c>
+      <c r="I16" s="3" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -2942,6 +2993,9 @@
       <c r="H17" s="5" t="n">
         <v>20.24088</v>
       </c>
+      <c r="I17" s="3" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -2976,6 +3030,9 @@
       <c r="H18" s="5" t="n">
         <v>4739.6</v>
       </c>
+      <c r="I18" s="3" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -3009,6 +3066,9 @@
       </c>
       <c r="H19" s="5" t="n">
         <v>7179.1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>440</v>
       </c>
     </row>
     <row r="20">
@@ -3028,6 +3088,7 @@
       <c r="H20" s="5" t="n">
         <v>13242.0939</v>
       </c>
+      <c r="I20" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3040,7 +3101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3057,6 +3118,7 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3100,6 +3162,11 @@
           <t>Amount</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Total Net Weight (kg)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -3124,7 +3191,7 @@
         <v>0.697</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -3132,7 +3199,10 @@
         </is>
       </c>
       <c r="H2" s="5" t="n">
-        <v>347.106</v>
+        <v>346.409</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -3168,6 +3238,9 @@
       <c r="H3" s="5" t="n">
         <v>46.002</v>
       </c>
+      <c r="I3" s="3" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -3202,6 +3275,9 @@
       <c r="H4" s="5" t="n">
         <v>21.7464</v>
       </c>
+      <c r="I4" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -3236,6 +3312,9 @@
       <c r="H5" s="5" t="n">
         <v>10.8732</v>
       </c>
+      <c r="I5" s="3" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -3270,6 +3349,9 @@
       <c r="H6" s="5" t="n">
         <v>46.002</v>
       </c>
+      <c r="I6" s="3" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -3304,6 +3386,9 @@
       <c r="H7" s="5" t="n">
         <v>315.044</v>
       </c>
+      <c r="I7" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -3338,6 +3423,9 @@
       <c r="H8" s="5" t="n">
         <v>15.27824</v>
       </c>
+      <c r="I8" s="3" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -3372,6 +3460,9 @@
       <c r="H9" s="5" t="n">
         <v>158.916</v>
       </c>
+      <c r="I9" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -3406,6 +3497,9 @@
       <c r="H10" s="5" t="n">
         <v>32.062</v>
       </c>
+      <c r="I10" s="3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -3440,6 +3534,9 @@
       <c r="H11" s="5" t="n">
         <v>77.367</v>
       </c>
+      <c r="I11" s="3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -3474,6 +3571,9 @@
       <c r="H12" s="5" t="n">
         <v>20.91</v>
       </c>
+      <c r="I12" s="3" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -3508,6 +3608,9 @@
       <c r="H13" s="5" t="n">
         <v>4208.7648</v>
       </c>
+      <c r="I13" s="3" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -3542,6 +3645,9 @@
       <c r="H14" s="5" t="n">
         <v>2849.336</v>
       </c>
+      <c r="I14" s="3" t="n">
+        <v>866</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -3576,6 +3682,9 @@
       <c r="H15" s="5" t="n">
         <v>161.704</v>
       </c>
+      <c r="I15" s="3" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -3610,6 +3719,9 @@
       <c r="H16" s="5" t="n">
         <v>55.76</v>
       </c>
+      <c r="I16" s="3" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -3644,6 +3756,9 @@
       <c r="H17" s="5" t="n">
         <v>130.339</v>
       </c>
+      <c r="I17" s="3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -3678,6 +3793,9 @@
       <c r="H18" s="5" t="n">
         <v>30.668</v>
       </c>
+      <c r="I18" s="3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -3712,6 +3830,9 @@
       <c r="H19" s="5" t="n">
         <v>243.95</v>
       </c>
+      <c r="I19" s="3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -3746,6 +3867,9 @@
       <c r="H20" s="5" t="n">
         <v>557.6</v>
       </c>
+      <c r="I20" s="3" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -3780,6 +3904,9 @@
       <c r="H21" s="5" t="n">
         <v>61.336</v>
       </c>
+      <c r="I21" s="3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -3814,6 +3941,9 @@
       <c r="H22" s="5" t="n">
         <v>129.95565</v>
       </c>
+      <c r="I22" s="3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -3848,6 +3978,9 @@
       <c r="H23" s="5" t="n">
         <v>1380.06</v>
       </c>
+      <c r="I23" s="3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -3882,6 +4015,9 @@
       <c r="H24" s="5" t="n">
         <v>9.061</v>
       </c>
+      <c r="I24" s="3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -3916,6 +4052,9 @@
       <c r="H25" s="5" t="n">
         <v>9.061</v>
       </c>
+      <c r="I25" s="3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -3950,6 +4089,9 @@
       <c r="H26" s="5" t="n">
         <v>61.336</v>
       </c>
+      <c r="I26" s="3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -3984,6 +4126,9 @@
       <c r="H27" s="5" t="n">
         <v>61.336</v>
       </c>
+      <c r="I27" s="3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -4018,6 +4163,9 @@
       <c r="H28" s="5" t="n">
         <v>61.336</v>
       </c>
+      <c r="I28" s="3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -4052,6 +4200,9 @@
       <c r="H29" s="5" t="n">
         <v>61.336</v>
       </c>
+      <c r="I29" s="3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -4086,6 +4237,9 @@
       <c r="H30" s="5" t="n">
         <v>91.4464</v>
       </c>
+      <c r="I30" s="3" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -4119,6 +4273,9 @@
       </c>
       <c r="H31" s="5" t="n">
         <v>91.4464</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4132,12 +4289,13 @@
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr"/>
       <c r="F32" s="3" t="n">
-        <v>6185</v>
+        <v>6184</v>
       </c>
       <c r="G32" s="3" t="inlineStr"/>
       <c r="H32" s="5" t="n">
-        <v>11347.13909</v>
-      </c>
+        <v>11346.44209</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4150,7 +4308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4167,6 +4325,7 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4210,6 +4369,11 @@
           <t>Amount</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Total Net Weight (kg)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -4244,6 +4408,9 @@
       <c r="H2" s="5" t="n">
         <v>485.112</v>
       </c>
+      <c r="I2" s="3" t="n">
+        <v>66.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -4278,6 +4445,9 @@
       <c r="H3" s="5" t="n">
         <v>2174.64</v>
       </c>
+      <c r="I3" s="3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -4311,6 +4481,9 @@
       </c>
       <c r="H4" s="5" t="n">
         <v>376.38</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>207.46</v>
       </c>
     </row>
     <row r="5">
@@ -4330,6 +4503,7 @@
       <c r="H5" s="5" t="n">
         <v>3036.132</v>
       </c>
+      <c r="I5" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226031" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226032" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226151" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226152" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226153" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,8 +459,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
@@ -2351,42 +2351,42 @@
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>NO.</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Material code</t>
+          <t>Part Number</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Model NO.</t>
+          <t>Model Number</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>Unit Price (CIF, USD)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Qty</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Total Amount (CIF, USD)</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
@@ -3088,7 +3088,9 @@
       <c r="H20" s="5" t="n">
         <v>13242.0939</v>
       </c>
-      <c r="I20" s="3" t="inlineStr"/>
+      <c r="I20" s="3" t="n">
+        <v>735.1700000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3114,42 +3116,42 @@
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>NO.</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Material code</t>
+          <t>Part Number</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Model NO.</t>
+          <t>Model Number</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>Unit Price (CIF, USD)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Qty</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
@@ -3159,7 +3161,7 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Total Amount (CIF, USD)</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
@@ -4295,7 +4297,9 @@
       <c r="H32" s="5" t="n">
         <v>11346.44209</v>
       </c>
-      <c r="I32" s="3" t="inlineStr"/>
+      <c r="I32" s="3" t="n">
+        <v>2118.29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4321,42 +4325,42 @@
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>NO.</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Material code</t>
+          <t>Part Number</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Model NO.</t>
+          <t>Model Number</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>Unit Price (CIF, USD)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Qty</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
@@ -4366,7 +4370,7 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Total Amount (CIF, USD)</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
@@ -4503,7 +4507,9 @@
       <c r="H5" s="5" t="n">
         <v>3036.132</v>
       </c>
-      <c r="I5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="n">
+        <v>307.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226151" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226152" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226153" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226737" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226738" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226739" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2338,7 +2338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3092,6 +3092,36 @@
         <v>735.1700000000001</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="5" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Amount in Words:</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>SAY USD THIRTEEN THOUSAND TWO HUNDRED AND FORTY-TWO AND CENTS NINE ONLY.</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="5" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3103,7 +3133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4301,6 +4331,36 @@
         <v>2118.29</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr"/>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="5" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Amount in Words:</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>SAY USD ELEVEN THOUSAND THREE HUNDRED AND FORTY-SIX AND CENTS FORTY-FOUR ONLY.</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="5" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4312,7 +4372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4511,6 +4571,36 @@
         <v>307.48</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Amount in Words:</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>SAY USD THREE THOUSAND AND THIRTY-SIX AND CENTS THIRTEEN ONLY.</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226737" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226738" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504226739" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504227022" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504227023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504227024" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504227022" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504227023" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504227024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504228368" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504228369" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504228370" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.009939999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>2.8</v>
@@ -1633,7 +1633,7 @@
         <v>34.24</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>66.02</v>
+        <v>64.2</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>10.63</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>207.46</v>
+        <v>205</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="n">
-        <v>9503</v>
+        <v>9506</v>
       </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
         <v>288.16</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>3160.94</v>
+        <v>3156.659999999999</v>
       </c>
       <c r="J53" s="3" t="inlineStr"/>
     </row>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.79</v>
+        <v>368.0029212451191</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>5</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="H2" s="5" t="n">
-        <v>243.95</v>
+        <v>1840.014606225596</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1.23</v>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.697</v>
+        <v>5.260221976526812</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>500</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="H3" s="5" t="n">
-        <v>348.5</v>
+        <v>2630.110988263406</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>2.5</v>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.697</v>
+        <v>5.260221976526811</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>400</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="H4" s="5" t="n">
-        <v>278.8</v>
+        <v>2104.088790610725</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>2</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.697</v>
+        <v>5.260221976526812</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>40</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="H5" s="5" t="n">
-        <v>27.88</v>
+        <v>210.4088790610725</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0.2</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.4182</v>
+        <v>3.160221976526812</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>40</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.728</v>
+        <v>126.4088790610725</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0.2</v>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.16728</v>
+        <v>1.270221976526811</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>140</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="H7" s="5" t="n">
-        <v>23.4192</v>
+        <v>177.8310767137536</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0.7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.138006</v>
+        <v>1.049721976526812</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>250</v>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="H8" s="5" t="n">
-        <v>34.5015</v>
+        <v>262.4304941317029</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>1.25</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.40438901962813</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>388</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="H9" s="5" t="n">
-        <v>71.395104</v>
+        <v>544.9029396157146</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>3.49</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404386137210151</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>457</v>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="H10" s="5" t="n">
-        <v>84.091656</v>
+        <v>641.8044647050392</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>4.11</v>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404390630257844</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>458</v>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="H11" s="5" t="n">
-        <v>84.27566400000001</v>
+        <v>643.2109086580928</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>4.12</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404378187762491</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>287</v>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="H12" s="5" t="n">
-        <v>52.810296</v>
+        <v>403.0565398878348</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>2.58</v>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404399557748261</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>40</v>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.36032</v>
+        <v>56.17598230993044</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0.36</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404399557748261</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>60</v>
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.04048</v>
+        <v>84.26397346489566</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>0.54</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404399557748261</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>50</v>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.2004</v>
+        <v>70.21997788741305</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0.45</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404399557748261</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>50</v>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.2004</v>
+        <v>70.21997788741305</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0.45</v>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.184008</v>
+        <v>1.404399557748261</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>110</v>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="H17" s="5" t="n">
-        <v>20.24088</v>
+        <v>154.4839513523087</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>0.99</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>473.96</v>
+        <v>3625.198673244783</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>10</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4739.6</v>
+        <v>36251.98673244783</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>270</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>717.91</v>
+        <v>5497.453393435942</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>10</v>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="H19" s="5" t="n">
-        <v>7179.1</v>
+        <v>54974.53393435942</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>440</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G20" s="3" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>13242.0939</v>
+        <v>101246.1530966432</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>735.1700000000001</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SAY USD THIRTEEN THOUSAND TWO HUNDRED AND FORTY-TWO AND CENTS NINE ONLY.</t>
+          <t>SAY USD ONE HUNDRED AND ONE THOUSAND TWO HUNDRED AND FORTY-SIX AND CENTS FIFTEEN ONLY.</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.697</v>
+        <v>5.260630855587884</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="H2" s="5" t="n">
-        <v>346.409</v>
+        <v>2630.315427793942</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>2.6</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.334</v>
+        <v>116.2496116119662</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>3</v>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="H3" s="5" t="n">
-        <v>46.002</v>
+        <v>348.7488348358985</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>1.1</v>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.8732</v>
+        <v>82.41109882634058</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>2</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="H4" s="5" t="n">
-        <v>21.7464</v>
+        <v>164.8221976526812</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0.5</v>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.8732</v>
+        <v>82.30887906107247</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.8732</v>
+        <v>82.30887906107247</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0.2</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15.334</v>
+        <v>116.5562709077705</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>3</v>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="H6" s="5" t="n">
-        <v>46.002</v>
+        <v>349.6688127233116</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>1.55</v>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.15044</v>
+        <v>23.77088790610725</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>100</v>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="H7" s="5" t="n">
-        <v>315.044</v>
+        <v>2377.088790610725</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>2</v>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.11152</v>
+        <v>0.8713374462865757</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>137</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="H8" s="5" t="n">
-        <v>15.27824</v>
+        <v>119.3732301412609</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>2.1</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>158.916</v>
+        <v>1203.133185916087</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="H9" s="5" t="n">
-        <v>158.916</v>
+        <v>1203.133185916087</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>3</v>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.062</v>
+        <v>251.7219765268116</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="H10" s="5" t="n">
-        <v>32.062</v>
+        <v>251.7219765268116</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>5</v>
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>25.789</v>
+        <v>197.6573255089372</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>3</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="H11" s="5" t="n">
-        <v>77.367</v>
+        <v>592.9719765268115</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>5</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.697</v>
+        <v>5.260221976526811</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>30</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.91</v>
+        <v>157.8066592958043</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>0.15</v>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>2.06312</v>
+        <v>16.74258547374254</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>2040</v>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="H13" s="5" t="n">
-        <v>4208.7648</v>
+        <v>34154.87436643478</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>1200</v>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1.01762</v>
+        <v>8.297302262301345</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>2800</v>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2849.336</v>
+        <v>23232.44633444376</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>866</v>
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>80.852</v>
+        <v>609.3066592958044</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>2</v>
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="H15" s="5" t="n">
-        <v>161.704</v>
+        <v>1218.613318591609</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0.3</v>
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>11.152</v>
+        <v>84.24532743664348</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>5</v>
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="H16" s="5" t="n">
-        <v>55.76</v>
+        <v>421.2266371832174</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0.6</v>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>130.339</v>
+        <v>1012.415929580435</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1</v>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="H17" s="5" t="n">
-        <v>130.339</v>
+        <v>1012.415929580435</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>15</v>
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>3.0668</v>
+        <v>23.11839955774826</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>10</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.668</v>
+        <v>231.1839955774826</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>0.09</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>48.79</v>
+        <v>367.5163551624429</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>5</v>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="H19" s="5" t="n">
-        <v>243.95</v>
+        <v>1837.581775812215</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>0.04</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>1.1152</v>
+        <v>8.418399557748261</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>500</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="H20" s="5" t="n">
-        <v>557.6</v>
+        <v>4209.19977887413</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>4.5</v>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>15.334</v>
+        <v>115.5204439530536</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>4</v>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="H21" s="5" t="n">
-        <v>61.336</v>
+        <v>462.0817758122145</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>0.04</v>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>25.99113</v>
+        <v>195.7888551624429</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>5</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="H22" s="5" t="n">
-        <v>129.95565</v>
+        <v>978.9442758122145</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>0.04</v>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>690.03</v>
+        <v>5197.520443953053</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>2</v>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1380.06</v>
+        <v>10395.04088790611</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>0.02</v>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0.9061</v>
+        <v>6.843399557748261</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>10</v>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.061</v>
+        <v>68.43399557748261</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>0.09</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0.9061</v>
+        <v>6.843399557748261</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>10</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="H25" s="5" t="n">
-        <v>9.061</v>
+        <v>68.43399557748261</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>0.09</v>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="E26" s="4" t="n">
-        <v>30.668</v>
+        <v>231.0204439530536</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>2</v>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="H26" s="5" t="n">
-        <v>61.336</v>
+        <v>462.0408879061072</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0.02</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>30.668</v>
+        <v>231.0204439530536</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>2</v>
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="H27" s="5" t="n">
-        <v>61.336</v>
+        <v>462.0408879061072</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>0.02</v>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>30.668</v>
+        <v>231.0204439530536</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>2</v>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="H28" s="5" t="n">
-        <v>61.336</v>
+        <v>462.0408879061072</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>0.02</v>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>30.668</v>
+        <v>231.0204439530536</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>2</v>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="H29" s="5" t="n">
-        <v>61.336</v>
+        <v>462.0408879061072</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>0.02</v>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>45.7232</v>
+        <v>348.6932301412609</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>2</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="H30" s="5" t="n">
-        <v>91.4464</v>
+        <v>697.3864602825217</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>4.2</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>45.7232</v>
+        <v>348.4887906107247</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>2</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="H31" s="5" t="n">
-        <v>91.4464</v>
+        <v>696.9775812214493</v>
       </c>
       <c r="I31" s="3" t="n">
         <v>4</v>
@@ -4321,11 +4321,11 @@
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr"/>
       <c r="F32" s="3" t="n">
-        <v>6184</v>
+        <v>6187</v>
       </c>
       <c r="G32" s="3" t="inlineStr"/>
       <c r="H32" s="5" t="n">
-        <v>11346.44209</v>
+        <v>89810.96463139595</v>
       </c>
       <c r="I32" s="3" t="n">
         <v>2118.29</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>SAY USD ELEVEN THOUSAND THREE HUNDRED AND FORTY-SIX AND CENTS FORTY-FOUR ONLY.</t>
+          <t>SAY USD EIGHTY-NINE THOUSAND EIGHT HUNDRED AND TEN AND CENTS NINETY-SIX ONLY.</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>161.704</v>
+        <v>1261.750059534754</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>3</v>
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="H2" s="5" t="n">
-        <v>485.112</v>
+        <v>3785.25017860426</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>66.02</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="3">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>181.22</v>
+        <v>1370.792453365193</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>12</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="H3" s="5" t="n">
-        <v>2174.64</v>
+        <v>16449.50944038232</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>34</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.82</v>
+        <v>361.5667819554749</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>9</v>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="H4" s="5" t="n">
-        <v>376.38</v>
+        <v>3254.101037599274</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>207.46</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
@@ -4565,10 +4565,10 @@
       </c>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>3036.132</v>
+        <v>23488.86065658585</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>307.48</v>
+        <v>303.2</v>
       </c>
     </row>
     <row r="6">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SAY USD THREE THOUSAND AND THIRTY-SIX AND CENTS THIRTEEN ONLY.</t>
+          <t>SAY USD TWENTY-THREE THOUSAND FOUR HUNDRED AND EIGHTY-EIGHT AND CENTS EIGHTY-SIX ONLY.</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504228368" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504228369" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504228370" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP20250423130" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP20250423131" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP20250423132" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP20250423130" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP20250423131" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP20250423132" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234407" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234408" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234409" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,7 +22,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,6 +37,11 @@
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -72,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -80,7 +85,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -623,15 +631,15 @@
       <c r="E4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="3" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -655,15 +663,15 @@
       <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" s="3" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -767,15 +775,15 @@
       <c r="E8" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="n">
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>2.1</v>
       </c>
-      <c r="J8" s="3" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -839,15 +847,15 @@
       <c r="E10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -871,15 +879,15 @@
       <c r="E11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="3" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -983,15 +991,15 @@
       <c r="E14" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="n">
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="J14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1015,15 +1023,15 @@
       <c r="E15" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="n">
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="3" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1047,15 +1055,15 @@
       <c r="E16" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="n">
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J16" s="3" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1079,15 +1087,15 @@
       <c r="E17" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="n">
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J17" s="3" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1111,15 +1119,15 @@
       <c r="E18" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="n">
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="J18" s="3" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1143,15 +1151,15 @@
       <c r="E19" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="n">
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>1.25</v>
       </c>
-      <c r="J19" s="3" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1215,15 +1223,15 @@
       <c r="E21" s="3" t="n">
         <v>457</v>
       </c>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="n">
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>4.11</v>
       </c>
-      <c r="J21" s="3" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1247,15 +1255,15 @@
       <c r="E22" s="3" t="n">
         <v>458</v>
       </c>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="n">
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>4.12</v>
       </c>
-      <c r="J22" s="3" t="inlineStr"/>
+      <c r="J22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1279,15 +1287,15 @@
       <c r="E23" s="3" t="n">
         <v>287</v>
       </c>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr"/>
-      <c r="H23" s="3" t="n">
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr"/>
+      <c r="H23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>2.58</v>
       </c>
-      <c r="J23" s="3" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1311,15 +1319,15 @@
       <c r="E24" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="n">
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="J24" s="3" t="inlineStr"/>
+      <c r="J24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1343,15 +1351,15 @@
       <c r="E25" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="n">
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="J25" s="3" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1375,15 +1383,15 @@
       <c r="E26" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="n">
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="J26" s="3" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1407,15 +1415,15 @@
       <c r="E27" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="n">
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="J27" s="3" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -1439,15 +1447,15 @@
       <c r="E28" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="n">
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>0.99</v>
       </c>
-      <c r="J28" s="3" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -1591,15 +1599,15 @@
       <c r="E32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="n">
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr"/>
+      <c r="H32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="J32" s="3" t="inlineStr"/>
+      <c r="J32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -1903,15 +1911,15 @@
       <c r="E40" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="n">
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J40" s="3" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -1935,15 +1943,15 @@
       <c r="E41" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="n">
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr"/>
+      <c r="H41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="3" t="n">
         <v>4.5</v>
       </c>
-      <c r="J41" s="3" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -1967,15 +1975,15 @@
       <c r="E42" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="n">
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J42" s="3" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -1999,15 +2007,15 @@
       <c r="E43" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="n">
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J43" s="3" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -2031,15 +2039,15 @@
       <c r="E44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="n">
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr"/>
+      <c r="H44" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J44" s="3" t="inlineStr"/>
+      <c r="J44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
@@ -2063,15 +2071,15 @@
       <c r="E45" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="n">
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
+      <c r="H45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="J45" s="3" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -2095,15 +2103,15 @@
       <c r="E46" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="n">
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="J46" s="3" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -2127,15 +2135,15 @@
       <c r="E47" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="n">
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr"/>
+      <c r="H47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J47" s="3" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
@@ -2159,15 +2167,15 @@
       <c r="E48" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="n">
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J48" s="3" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
@@ -2191,15 +2199,15 @@
       <c r="E49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="n">
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J49" s="3" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
@@ -2223,15 +2231,15 @@
       <c r="E50" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="n">
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J50" s="3" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
@@ -2295,37 +2303,37 @@
       <c r="E52" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr"/>
-      <c r="H52" s="3" t="n">
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J52" s="3" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr"/>
-      <c r="B53" s="3" t="inlineStr"/>
+      <c r="A53" s="4" t="inlineStr"/>
+      <c r="B53" s="4" t="inlineStr"/>
       <c r="C53" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr"/>
+      <c r="D53" s="4" t="inlineStr"/>
       <c r="E53" s="3" t="n">
         <v>9506</v>
       </c>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
       <c r="H53" s="3" t="n">
         <v>288.16</v>
       </c>
       <c r="I53" s="3" t="n">
         <v>3156.659999999999</v>
       </c>
-      <c r="J53" s="3" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2424,7 +2432,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>368.0029212451191</v>
       </c>
       <c r="F2" s="3" t="n">
@@ -2435,7 +2443,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>1840.014606225596</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -2461,7 +2469,7 @@
           <t>900M-T-B</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>5.260221976526812</v>
       </c>
       <c r="F3" s="3" t="n">
@@ -2472,7 +2480,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>2630.110988263406</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -2498,7 +2506,7 @@
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>5.260221976526811</v>
       </c>
       <c r="F4" s="3" t="n">
@@ -2509,7 +2517,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>2104.088790610725</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -2535,7 +2543,7 @@
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>5.260221976526812</v>
       </c>
       <c r="F5" s="3" t="n">
@@ -2546,7 +2554,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>210.4088790610725</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -2572,7 +2580,7 @@
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>3.160221976526812</v>
       </c>
       <c r="F6" s="3" t="n">
@@ -2583,7 +2591,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="6" t="n">
         <v>126.4088790610725</v>
       </c>
       <c r="I6" s="3" t="n">
@@ -2609,7 +2617,7 @@
           <t>WRNT-013</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>1.270221976526811</v>
       </c>
       <c r="F7" s="3" t="n">
@@ -2620,7 +2628,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <v>177.8310767137536</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -2646,7 +2654,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>1.049721976526812</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -2657,7 +2665,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <v>262.4304941317029</v>
       </c>
       <c r="I8" s="3" t="n">
@@ -2683,7 +2691,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>1.40438901962813</v>
       </c>
       <c r="F9" s="3" t="n">
@@ -2694,7 +2702,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>544.9029396157146</v>
       </c>
       <c r="I9" s="3" t="n">
@@ -2720,7 +2728,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>1.404386137210151</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -2731,7 +2739,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="6" t="n">
         <v>641.8044647050392</v>
       </c>
       <c r="I10" s="3" t="n">
@@ -2757,7 +2765,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>1.404390630257844</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -2768,7 +2776,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="n">
         <v>643.2109086580928</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -2794,7 +2802,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>1.404378187762491</v>
       </c>
       <c r="F12" s="3" t="n">
@@ -2805,7 +2813,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="6" t="n">
         <v>403.0565398878348</v>
       </c>
       <c r="I12" s="3" t="n">
@@ -2831,7 +2839,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>1.404399557748261</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -2842,7 +2850,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="6" t="n">
         <v>56.17598230993044</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -2868,7 +2876,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>1.404399557748261</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -2879,7 +2887,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <v>84.26397346489566</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -2905,7 +2913,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>1.404399557748261</v>
       </c>
       <c r="F15" s="3" t="n">
@@ -2916,7 +2924,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="6" t="n">
         <v>70.21997788741305</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -2942,7 +2950,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>1.404399557748261</v>
       </c>
       <c r="F16" s="3" t="n">
@@ -2953,7 +2961,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="6" t="n">
         <v>70.21997788741305</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -2979,7 +2987,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>1.404399557748261</v>
       </c>
       <c r="F17" s="3" t="n">
@@ -2990,7 +2998,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="6" t="n">
         <v>154.4839513523087</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -3016,7 +3024,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>3625.198673244783</v>
       </c>
       <c r="F18" s="3" t="n">
@@ -3027,7 +3035,7 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="6" t="n">
         <v>36251.98673244783</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -3053,7 +3061,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>5497.453393435942</v>
       </c>
       <c r="F19" s="3" t="n">
@@ -3064,7 +3072,7 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="6" t="n">
         <v>54974.53393435942</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -3072,20 +3080,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr"/>
-      <c r="B20" s="3" t="inlineStr"/>
+      <c r="A20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr"/>
       <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
       <c r="F20" s="3" t="n">
         <v>3295</v>
       </c>
-      <c r="G20" s="3" t="inlineStr"/>
-      <c r="H20" s="5" t="n">
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
         <v>101246.1530966432</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -3093,15 +3101,15 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr"/>
-      <c r="B21" s="3" t="inlineStr"/>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
+      <c r="A21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -3114,13 +3122,13 @@
           <t>SAY USD ONE HUNDRED AND ONE THOUSAND TWO HUNDRED AND FORTY-SIX AND CENTS FIFTEEN ONLY.</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3219,7 +3227,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>5.260630855587884</v>
       </c>
       <c r="F2" s="3" t="n">
@@ -3230,7 +3238,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>2630.315427793942</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -3256,7 +3264,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>116.2496116119662</v>
       </c>
       <c r="F3" s="3" t="n">
@@ -3267,7 +3275,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>348.7488348358985</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -3293,7 +3301,7 @@
           <t>12-14</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>82.41109882634058</v>
       </c>
       <c r="F4" s="3" t="n">
@@ -3304,7 +3312,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>164.8221976526812</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -3330,7 +3338,7 @@
           <t>8-14</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>82.30887906107247</v>
       </c>
       <c r="F5" s="3" t="n">
@@ -3341,7 +3349,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>82.30887906107247</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -3367,7 +3375,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>116.5562709077705</v>
       </c>
       <c r="F6" s="3" t="n">
@@ -3378,7 +3386,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="6" t="n">
         <v>349.6688127233116</v>
       </c>
       <c r="I6" s="3" t="n">
@@ -3404,7 +3412,7 @@
           <t>QLDZ.0014</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>23.77088790610725</v>
       </c>
       <c r="F7" s="3" t="n">
@@ -3415,7 +3423,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <v>2377.088790610725</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -3441,7 +3449,7 @@
           <t>N510059196AA</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.8713374462865757</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -3452,7 +3460,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <v>119.3732301412609</v>
       </c>
       <c r="I8" s="3" t="n">
@@ -3478,7 +3486,7 @@
           <t>FA2P5N1W20360133</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>1203.133185916087</v>
       </c>
       <c r="F9" s="3" t="n">
@@ -3489,7 +3497,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>1203.133185916087</v>
       </c>
       <c r="I9" s="3" t="n">
@@ -3515,7 +3523,7 @@
           <t>STM86118S</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>251.7219765268116</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -3526,7 +3534,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="6" t="n">
         <v>251.7219765268116</v>
       </c>
       <c r="I10" s="3" t="n">
@@ -3552,7 +3560,7 @@
           <t>STM8680</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>197.6573255089372</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -3563,7 +3571,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="6" t="n">
         <v>592.9719765268115</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -3589,7 +3597,7 @@
           <t>900M-T-sk</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>5.260221976526811</v>
       </c>
       <c r="F12" s="3" t="n">
@@ -3600,7 +3608,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="6" t="n">
         <v>157.8066592958043</v>
       </c>
       <c r="I12" s="3" t="n">
@@ -3626,7 +3634,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>16.74258547374254</v>
       </c>
       <c r="F13" s="3" t="n">
@@ -3637,7 +3645,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="6" t="n">
         <v>34154.87436643478</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -3663,7 +3671,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>8.297302262301345</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -3674,7 +3682,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <v>23232.44633444376</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -3700,7 +3708,7 @@
           <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>609.3066592958044</v>
       </c>
       <c r="F15" s="3" t="n">
@@ -3711,7 +3719,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="6" t="n">
         <v>1218.613318591609</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -3737,7 +3745,7 @@
           <t>KLV-M913A-A10</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>84.24532743664348</v>
       </c>
       <c r="F16" s="3" t="n">
@@ -3748,7 +3756,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="6" t="n">
         <v>421.2266371832174</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -3774,7 +3782,7 @@
           <t>AEVF4</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>1012.415929580435</v>
       </c>
       <c r="F17" s="3" t="n">
@@ -3785,7 +3793,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="6" t="n">
         <v>1012.415929580435</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -3811,7 +3819,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>23.11839955774826</v>
       </c>
       <c r="F18" s="3" t="n">
@@ -3822,7 +3830,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="6" t="n">
         <v>231.1839955774826</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -3848,7 +3856,7 @@
           <t>TG-205A-FU</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>367.5163551624429</v>
       </c>
       <c r="F19" s="3" t="n">
@@ -3859,7 +3867,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="6" t="n">
         <v>1837.581775812215</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -3885,7 +3893,7 @@
           <t>LS1D-01033</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>8.418399557748261</v>
       </c>
       <c r="F20" s="3" t="n">
@@ -3896,7 +3904,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="6" t="n">
         <v>4209.19977887413</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -3922,7 +3930,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>115.5204439530536</v>
       </c>
       <c r="F21" s="3" t="n">
@@ -3933,7 +3941,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="6" t="n">
         <v>462.0817758122145</v>
       </c>
       <c r="I21" s="3" t="n">
@@ -3959,7 +3967,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>195.7888551624429</v>
       </c>
       <c r="F22" s="3" t="n">
@@ -3970,7 +3978,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="6" t="n">
         <v>978.9442758122145</v>
       </c>
       <c r="I22" s="3" t="n">
@@ -3996,7 +4004,7 @@
           <t>KYB-M7027-001</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>5197.520443953053</v>
       </c>
       <c r="F23" s="3" t="n">
@@ -4007,7 +4015,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="6" t="n">
         <v>10395.04088790611</v>
       </c>
       <c r="I23" s="3" t="n">
@@ -4033,7 +4041,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>6.843399557748261</v>
       </c>
       <c r="F24" s="3" t="n">
@@ -4044,7 +4052,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="6" t="n">
         <v>68.43399557748261</v>
       </c>
       <c r="I24" s="3" t="n">
@@ -4070,7 +4078,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>6.843399557748261</v>
       </c>
       <c r="F25" s="3" t="n">
@@ -4081,7 +4089,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="6" t="n">
         <v>68.43399557748261</v>
       </c>
       <c r="I25" s="3" t="n">
@@ -4107,7 +4115,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <v>231.0204439530536</v>
       </c>
       <c r="F26" s="3" t="n">
@@ -4118,7 +4126,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="6" t="n">
         <v>462.0408879061072</v>
       </c>
       <c r="I26" s="3" t="n">
@@ -4144,7 +4152,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>231.0204439530536</v>
       </c>
       <c r="F27" s="3" t="n">
@@ -4155,7 +4163,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="6" t="n">
         <v>462.0408879061072</v>
       </c>
       <c r="I27" s="3" t="n">
@@ -4181,7 +4189,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="5" t="n">
         <v>231.0204439530536</v>
       </c>
       <c r="F28" s="3" t="n">
@@ -4192,7 +4200,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="6" t="n">
         <v>462.0408879061072</v>
       </c>
       <c r="I28" s="3" t="n">
@@ -4218,7 +4226,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="5" t="n">
         <v>231.0204439530536</v>
       </c>
       <c r="F29" s="3" t="n">
@@ -4229,7 +4237,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="6" t="n">
         <v>462.0408879061072</v>
       </c>
       <c r="I29" s="3" t="n">
@@ -4255,7 +4263,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="5" t="n">
         <v>348.6932301412609</v>
       </c>
       <c r="F30" s="3" t="n">
@@ -4266,7 +4274,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="6" t="n">
         <v>697.3864602825217</v>
       </c>
       <c r="I30" s="3" t="n">
@@ -4292,7 +4300,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="5" t="n">
         <v>348.4887906107247</v>
       </c>
       <c r="F31" s="3" t="n">
@@ -4303,7 +4311,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="6" t="n">
         <v>696.9775812214493</v>
       </c>
       <c r="I31" s="3" t="n">
@@ -4311,20 +4319,20 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr"/>
-      <c r="B32" s="3" t="inlineStr"/>
+      <c r="A32" s="4" t="inlineStr"/>
+      <c r="B32" s="4" t="inlineStr"/>
       <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="4" t="inlineStr"/>
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="7" t="inlineStr"/>
       <c r="F32" s="3" t="n">
         <v>6187</v>
       </c>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="5" t="n">
+      <c r="G32" s="4" t="inlineStr"/>
+      <c r="H32" s="6" t="n">
         <v>89810.96463139595</v>
       </c>
       <c r="I32" s="3" t="n">
@@ -4332,15 +4340,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="3" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr"/>
+      <c r="A33" s="4" t="inlineStr"/>
+      <c r="B33" s="4" t="inlineStr"/>
+      <c r="C33" s="4" t="inlineStr"/>
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="7" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr"/>
+      <c r="H33" s="8" t="inlineStr"/>
+      <c r="I33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -4353,13 +4361,13 @@
           <t>SAY USD EIGHTY-NINE THOUSAND EIGHT HUNDRED AND TEN AND CENTS NINETY-SIX ONLY.</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="4" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="5" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
+      <c r="C34" s="4" t="inlineStr"/>
+      <c r="D34" s="4" t="inlineStr"/>
+      <c r="E34" s="7" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr"/>
+      <c r="H34" s="8" t="inlineStr"/>
+      <c r="I34" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4458,7 +4466,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>1261.750059534754</v>
       </c>
       <c r="F2" s="3" t="n">
@@ -4469,7 +4477,7 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>3785.25017860426</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -4495,7 +4503,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>1370.792453365193</v>
       </c>
       <c r="F3" s="3" t="n">
@@ -4506,7 +4514,7 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>16449.50944038232</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -4532,7 +4540,7 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>361.5667819554749</v>
       </c>
       <c r="F4" s="3" t="n">
@@ -4543,7 +4551,7 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>3254.101037599274</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -4551,20 +4559,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
-      <c r="B5" s="3" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
       <c r="F5" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="5" t="n">
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
         <v>23488.86065658585</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -4572,15 +4580,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr"/>
+      <c r="A6" s="4" t="inlineStr"/>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="8" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -4593,13 +4601,13 @@
           <t>SAY USD TWENTY-THREE THOUSAND FOUR HUNDRED AND EIGHTY-EIGHT AND CENTS EIGHTY-SIX ONLY.</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="8" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/reimport_invoice.xlsx
+++ b/outputs/reimport_invoice.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234407" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234408" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234409" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234696" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234697" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIMP202504234698" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
